--- a/deelnemers/data/project_mmb_data.xlsx
+++ b/deelnemers/data/project_mmb_data.xlsx
@@ -8,16 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://digipolis-my.sharepoint.com/personal/bert_daemen_antwerpen_be/Documents/Documenten/Persoonlijk/Project_IT/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="71" documentId="8_{0A17A78B-B827-4089-82F3-7CEF92ACC5FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E1AFC7EA-2138-4B45-B3BE-B9303FC76144}"/>
+  <xr:revisionPtr revIDLastSave="139" documentId="8_{0A17A78B-B827-4089-82F3-7CEF92ACC5FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CFB888F8-3CDD-43AE-A784-A909C5F0E2B5}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{E8305925-36F0-469E-9A71-A7CAC46C7E2B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{E8305925-36F0-469E-9A71-A7CAC46C7E2B}"/>
   </bookViews>
   <sheets>
     <sheet name="deelnemers" sheetId="1" r:id="rId1"/>
     <sheet name="koers" sheetId="2" r:id="rId2"/>
+    <sheet name="uitslagen" sheetId="3" r:id="rId3"/>
+    <sheet name="eindzeges" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">deelnemers!$A$1:$C$69</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">uitslagen!$A$1:$H$205</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1813" uniqueCount="248">
   <si>
     <t>Wim Vangheluwe</t>
   </si>
@@ -351,9 +354,6 @@
     <t>Bart</t>
   </si>
   <si>
-    <t>Van</t>
-  </si>
-  <si>
     <t>Julien</t>
   </si>
   <si>
@@ -462,9 +462,6 @@
     <t>William</t>
   </si>
   <si>
-    <t>Hunt</t>
-  </si>
-  <si>
     <t>Hugo</t>
   </si>
   <si>
@@ -546,12 +543,6 @@
     <t>NaamVoorNaam</t>
   </si>
   <si>
-    <t>Eddy Van</t>
-  </si>
-  <si>
-    <t>Evert Van</t>
-  </si>
-  <si>
     <t>Status</t>
   </si>
   <si>
@@ -685,6 +676,117 @@
   </si>
   <si>
     <t>Koersvolgnummer</t>
+  </si>
+  <si>
+    <t>William de Jager</t>
+  </si>
+  <si>
+    <t>Jaar</t>
+  </si>
+  <si>
+    <t>Editie</t>
+  </si>
+  <si>
+    <t>KoersNaam</t>
+  </si>
+  <si>
+    <t>eerste_plaats</t>
+  </si>
+  <si>
+    <t>tweede_plaats</t>
+  </si>
+  <si>
+    <t>derde_plaats</t>
+  </si>
+  <si>
+    <t>MiniMegaBike</t>
+  </si>
+  <si>
+    <t>gereden</t>
+  </si>
+  <si>
+    <t>uitslag definitief</t>
+  </si>
+  <si>
+    <t>Eddy Van Tuyn</t>
+  </si>
+  <si>
+    <t>Martine Bryon;Peter Budts</t>
+  </si>
+  <si>
+    <t>geen</t>
+  </si>
+  <si>
+    <t>uitslag open</t>
+  </si>
+  <si>
+    <t>Eddie Barbé;Rik Mesdag</t>
+  </si>
+  <si>
+    <t>Joris D'haese</t>
+  </si>
+  <si>
+    <t>Koenraad Marginet;Virginie Wanzeele</t>
+  </si>
+  <si>
+    <t>Evert Van den Wijngaert</t>
+  </si>
+  <si>
+    <t>Bert De Clercq;Bart Raats</t>
+  </si>
+  <si>
+    <t>Wim Vangheluwe;Tom Daemen;Sven Gerits;Yannick Van de Vel</t>
+  </si>
+  <si>
+    <t>Martine Bryon;Niko Vos;Peter Budts</t>
+  </si>
+  <si>
+    <t>Italiaanse Zomereditie</t>
+  </si>
+  <si>
+    <t>Laurens Barbé;Virginie Wanzeele</t>
+  </si>
+  <si>
+    <t>Jimmy Jacobs;Julien Van de Vel;Laurens Barbé;Pieter Wittstock;Rik Mesdag;Stijn Aertssen;Stijn Agache</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bert De Ketelaere </t>
+  </si>
+  <si>
+    <t>Bert Daemen;Niko Vos</t>
+  </si>
+  <si>
+    <t>Karel Wanzeele;Walter Vangheluwe</t>
+  </si>
+  <si>
+    <t>Joris de Reydt</t>
+  </si>
+  <si>
+    <t>niet gereden</t>
+  </si>
+  <si>
+    <t>EerstePLaats</t>
+  </si>
+  <si>
+    <t>TweedePLaats</t>
+  </si>
+  <si>
+    <t>DerdePLaats</t>
+  </si>
+  <si>
+    <t>UitslagStatus</t>
+  </si>
+  <si>
+    <t>KoersStatus</t>
+  </si>
+  <si>
+    <t>Evert Van den Weyngaert</t>
+  </si>
+  <si>
+    <t>Van Tuyn</t>
+  </si>
+  <si>
+    <t>Van den Weyngaert</t>
   </si>
 </sst>
 </file>
@@ -707,15 +809,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -738,13 +846,32 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -1081,8 +1208,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B826E3B9-CC8E-4641-AF3A-7BCEE4C388D3}">
   <dimension ref="A1:F68"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1095,30 +1222,30 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B1" t="s">
+        <v>169</v>
+      </c>
+      <c r="C1" t="s">
+        <v>165</v>
+      </c>
+      <c r="D1" t="s">
         <v>166</v>
       </c>
-      <c r="B1" t="s">
-        <v>173</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>167</v>
       </c>
-      <c r="D1" t="s">
-        <v>170</v>
-      </c>
-      <c r="E1" t="s">
-        <v>171</v>
-      </c>
       <c r="F1" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C2" t="s">
         <v>61</v>
@@ -1129,7 +1256,7 @@
         <v>102</v>
       </c>
       <c r="B3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C3" t="s">
         <v>42</v>
@@ -1140,7 +1267,7 @@
         <v>102</v>
       </c>
       <c r="B4" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C4" t="s">
         <v>21</v>
@@ -1148,10 +1275,10 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>114</v>
+      </c>
+      <c r="B5" t="s">
         <v>115</v>
-      </c>
-      <c r="B5" t="s">
-        <v>116</v>
       </c>
       <c r="C5" t="s">
         <v>30</v>
@@ -1162,7 +1289,7 @@
         <v>84</v>
       </c>
       <c r="B6" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C6" t="s">
         <v>57</v>
@@ -1184,7 +1311,7 @@
         <v>84</v>
       </c>
       <c r="B8" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C8" t="s">
         <v>36</v>
@@ -1195,7 +1322,7 @@
         <v>84</v>
       </c>
       <c r="B9" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C9" t="s">
         <v>60</v>
@@ -1206,7 +1333,7 @@
         <v>84</v>
       </c>
       <c r="B10" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C10" t="s">
         <v>33</v>
@@ -1214,10 +1341,10 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B11" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C11" t="s">
         <v>47</v>
@@ -1225,10 +1352,10 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>108</v>
+      </c>
+      <c r="B12" t="s">
         <v>109</v>
-      </c>
-      <c r="B12" t="s">
-        <v>110</v>
       </c>
       <c r="C12" t="s">
         <v>26</v>
@@ -1236,10 +1363,10 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B13" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C13" t="s">
         <v>62</v>
@@ -1247,10 +1374,10 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B14" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C14" t="s">
         <v>54</v>
@@ -1258,10 +1385,10 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>120</v>
+      </c>
+      <c r="B15" t="s">
         <v>121</v>
-      </c>
-      <c r="B15" t="s">
-        <v>122</v>
       </c>
       <c r="C15" t="s">
         <v>34</v>
@@ -1269,10 +1396,10 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B16" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C16" t="s">
         <v>41</v>
@@ -1280,7 +1407,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B17" t="s">
         <v>76</v>
@@ -1291,32 +1418,32 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B18" t="s">
-        <v>103</v>
+        <v>246</v>
       </c>
       <c r="C18" t="s">
-        <v>168</v>
+        <v>221</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B19" t="s">
-        <v>103</v>
+        <v>247</v>
       </c>
       <c r="C19" t="s">
-        <v>169</v>
+        <v>245</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B20" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C20" t="s">
         <v>59</v>
@@ -1324,10 +1451,10 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B21" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C21" t="s">
         <v>64</v>
@@ -1335,10 +1462,10 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B22" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C22" t="s">
         <v>45</v>
@@ -1346,7 +1473,7 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B23" t="s">
         <v>82</v>
@@ -1368,10 +1495,10 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
+        <v>104</v>
+      </c>
+      <c r="B25" t="s">
         <v>105</v>
-      </c>
-      <c r="B25" t="s">
-        <v>106</v>
       </c>
       <c r="C25" t="s">
         <v>23</v>
@@ -1382,7 +1509,7 @@
         <v>77</v>
       </c>
       <c r="B26" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C26" t="s">
         <v>40</v>
@@ -1393,7 +1520,7 @@
         <v>79</v>
       </c>
       <c r="B27" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C27" t="s">
         <v>55</v>
@@ -1415,7 +1542,7 @@
         <v>83</v>
       </c>
       <c r="B29" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C29" t="s">
         <v>9</v>
@@ -1434,10 +1561,10 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B31" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C31" t="s">
         <v>22</v>
@@ -1456,7 +1583,7 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B33" t="s">
         <v>89</v>
@@ -1489,10 +1616,10 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B36" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C36" t="s">
         <v>63</v>
@@ -1533,10 +1660,10 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B40" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C40" t="s">
         <v>58</v>
@@ -1555,10 +1682,10 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
+        <v>106</v>
+      </c>
+      <c r="B42" t="s">
         <v>107</v>
-      </c>
-      <c r="B42" t="s">
-        <v>108</v>
       </c>
       <c r="C42" t="s">
         <v>25</v>
@@ -1566,10 +1693,10 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B43" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C43" t="s">
         <v>37</v>
@@ -1577,10 +1704,10 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B44" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C44" t="s">
         <v>43</v>
@@ -1588,10 +1715,10 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
+        <v>116</v>
+      </c>
+      <c r="B45" t="s">
         <v>117</v>
-      </c>
-      <c r="B45" t="s">
-        <v>118</v>
       </c>
       <c r="C45" t="s">
         <v>31</v>
@@ -1599,10 +1726,10 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
+        <v>110</v>
+      </c>
+      <c r="B46" t="s">
         <v>111</v>
-      </c>
-      <c r="B46" t="s">
-        <v>112</v>
       </c>
       <c r="C46" t="s">
         <v>27</v>
@@ -1610,7 +1737,7 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B47" t="s">
         <v>87</v>
@@ -1621,10 +1748,10 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
+        <v>136</v>
+      </c>
+      <c r="B48" t="s">
         <v>137</v>
-      </c>
-      <c r="B48" t="s">
-        <v>138</v>
       </c>
       <c r="C48" t="s">
         <v>51</v>
@@ -1646,7 +1773,7 @@
         <v>100</v>
       </c>
       <c r="B50" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C50" t="s">
         <v>46</v>
@@ -1654,10 +1781,10 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
+        <v>133</v>
+      </c>
+      <c r="B51" t="s">
         <v>134</v>
-      </c>
-      <c r="B51" t="s">
-        <v>135</v>
       </c>
       <c r="C51" t="s">
         <v>49</v>
@@ -1679,7 +1806,7 @@
         <v>93</v>
       </c>
       <c r="B53" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C53" t="s">
         <v>35</v>
@@ -1734,7 +1861,7 @@
         <v>69</v>
       </c>
       <c r="B58" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C58" t="s">
         <v>32</v>
@@ -1745,7 +1872,7 @@
         <v>69</v>
       </c>
       <c r="B59" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C59" t="s">
         <v>56</v>
@@ -1764,7 +1891,7 @@
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B61" t="s">
         <v>87</v>
@@ -1786,13 +1913,13 @@
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B63" t="s">
-        <v>140</v>
+        <v>162</v>
       </c>
       <c r="C63" t="s">
-        <v>52</v>
+        <v>211</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
@@ -1800,7 +1927,7 @@
         <v>65</v>
       </c>
       <c r="B64" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C64" t="s">
         <v>48</v>
@@ -1822,7 +1949,7 @@
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C66" t="s">
         <v>28</v>
@@ -1830,10 +1957,10 @@
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B67" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C67" t="s">
         <v>38</v>
@@ -1864,7 +1991,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{792B8A69-25D2-40AA-8E7B-284CAB40EE68}">
   <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -1872,33 +1999,33 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>210</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="E2" s="1">
         <v>1</v>
@@ -1906,16 +2033,16 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="E3" s="1">
         <v>2</v>
@@ -1923,16 +2050,16 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="E4" s="1">
         <v>3</v>
@@ -1940,16 +2067,16 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="E5" s="1">
         <v>4</v>
@@ -1957,16 +2084,16 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="E6" s="1">
         <v>5</v>
@@ -1974,16 +2101,16 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="E7" s="1">
         <v>6</v>
@@ -1991,16 +2118,16 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="E8" s="1">
         <v>7</v>
@@ -2008,16 +2135,16 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="E9" s="1">
         <v>8</v>
@@ -2025,16 +2152,16 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="E10" s="1">
         <v>9</v>
@@ -2042,16 +2169,16 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="E11" s="1">
         <v>10</v>
@@ -2059,16 +2186,16 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="E12" s="1">
         <v>11</v>
@@ -2076,16 +2203,16 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="E13" s="1">
         <v>12</v>
@@ -2093,16 +2220,16 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="E14" s="1">
         <v>13</v>
@@ -2110,18 +2237,5872 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="E15" s="1">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67AC5DCB-00CB-42A4-971D-487161262978}">
+  <dimension ref="A1:H205"/>
+  <sheetViews>
+    <sheetView topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="F56" sqref="F56"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="14.5703125" customWidth="1"/>
+    <col min="4" max="4" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.42578125" customWidth="1"/>
+    <col min="6" max="6" width="25.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="3">
+        <v>2025</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
+        <v>2025</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
+        <v>2025</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
+        <v>2025</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>2025</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <v>2025</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>2025</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
+        <v>2025</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
+        <v>2025</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
+        <v>2025</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
+        <v>2025</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
+        <v>2025</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
+        <v>2024</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="3">
+        <v>2024</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="3">
+        <v>2024</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="3">
+        <v>2024</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="H17" s="4" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="3">
+        <v>2024</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="3">
+        <v>2024</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="H19" s="4" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="3">
+        <v>2024</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="H20" s="4" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="3">
+        <v>2024</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="H21" s="4" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="3">
+        <v>2024</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H22" s="4" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="3">
+        <v>2024</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="H23" s="4" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="3">
+        <v>2024</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="G24" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H24" s="4" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="3">
+        <v>2024</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="G25" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H25" s="4" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="3">
+        <v>2023</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="G26" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H26" s="4" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="3">
+        <v>2023</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G27" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H27" s="4" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="3">
+        <v>2023</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G28" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="H28" s="4" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="3">
+        <v>2023</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G29" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H29" s="4" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="3">
+        <v>2023</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="F30" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="G30" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H30" s="4" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="3">
+        <v>2023</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G31" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="H31" s="4" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="3">
+        <v>2023</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F32" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="G32" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H32" s="4" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="3">
+        <v>2023</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F33" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G33" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="H33" s="4" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" s="3">
+        <v>2023</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="F34" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="G34" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="H34" s="4" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" s="3">
+        <v>2023</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F35" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G35" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H35" s="4" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" s="3">
+        <v>2023</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="F36" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G36" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="H36" s="4" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" s="3">
+        <v>2023</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="F37" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="G37" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H37" s="4" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" s="3">
+        <v>2022</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F38" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G38" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H38" s="4" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" s="3">
+        <v>2022</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F39" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G39" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H39" s="4" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" s="3">
+        <v>2022</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="E40" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F40" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="G40" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H40" s="4" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" s="3">
+        <v>2022</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="E41" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="F41" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="G41" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H41" s="4" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" s="3">
+        <v>2022</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="E42" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F42" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="G42" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="H42" s="4" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" s="3">
+        <v>2022</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="E43" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F43" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G43" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H43" s="4" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" s="3">
+        <v>2022</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="D44" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="E44" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F44" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G44" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H44" s="4" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" s="3">
+        <v>2022</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="E45" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F45" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G45" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H45" s="4" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46" s="3">
+        <v>2022</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="D46" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="E46" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F46" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="G46" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="H46" s="4" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" s="3">
+        <v>2022</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="D47" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="E47" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F47" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G47" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H47" s="4" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48" s="3">
+        <v>2022</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="D48" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="E48" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F48" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G48" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H48" s="4" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49" s="3">
+        <v>2022</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="D49" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="E49" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F49" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G49" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H49" s="4" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A50" s="3">
+        <v>2021</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="D50" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="E50" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="F50" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G50" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H50" s="4" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A51" s="3">
+        <v>2021</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="D51" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="E51" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F51" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="G51" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H51" s="4" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A52" s="3">
+        <v>2021</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="D52" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="E52" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="F52" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G52" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="H52" s="4" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A53" s="3">
+        <v>2021</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="D53" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="E53" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F53" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G53" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="H53" s="4" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A54" s="3">
+        <v>2021</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="D54" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="E54" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F54" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G54" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H54" s="4" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A55" s="3">
+        <v>2021</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="D55" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="E55" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F55" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G55" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="H55" s="4" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A56" s="3">
+        <v>2021</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="C56" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="D56" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="E56" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F56" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="G56" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H56" s="4" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A57" s="3">
+        <v>2021</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="C57" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="D57" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="E57" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F57" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G57" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H57" s="4" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A58" s="3">
+        <v>2021</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="C58" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="D58" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="E58" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F58" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G58" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="H58" s="4" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A59" s="3">
+        <v>2021</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="C59" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="D59" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="E59" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="F59" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="G59" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="H59" s="4" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A60" s="3">
+        <v>2021</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="C60" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="D60" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="E60" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="F60" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="G60" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="H60" s="4" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A61" s="3">
+        <v>2020</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="C61" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="D61" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="E61" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F61" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G61" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H61" s="4" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A62" s="3">
+        <v>2020</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="C62" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="D62" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="E62" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="F62" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G62" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="H62" s="4" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A63" s="3">
+        <v>2020</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="C63" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="D63" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="E63" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F63" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G63" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H63" s="4" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A64" s="3">
+        <v>2020</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="C64" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="D64" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="E64" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F64" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="G64" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="H64" s="4" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A65" s="3">
+        <v>2020</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="C65" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="D65" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="E65" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F65" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G65" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H65" s="4" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A66" s="3">
+        <v>2020</v>
+      </c>
+      <c r="B66" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="C66" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="D66" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="E66" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F66" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="G66" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H66" s="4" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A67" s="3">
+        <v>2020</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="C67" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="D67" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="E67" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F67" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G67" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="H67" s="4" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A68" s="3">
+        <v>2020</v>
+      </c>
+      <c r="B68" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="C68" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="D68" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="E68" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F68" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G68" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H68" s="4" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A69" s="3">
+        <v>2020</v>
+      </c>
+      <c r="B69" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="C69" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="D69" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="E69" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F69" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G69" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H69" s="4" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A70" s="3">
+        <v>2020</v>
+      </c>
+      <c r="B70" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="C70" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="D70" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="E70" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F70" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G70" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="H70" s="4" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A71" s="3">
+        <v>2019</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="C71" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="D71" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="E71" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="F71" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G71" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="H71" s="4" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A72" s="3">
+        <v>2019</v>
+      </c>
+      <c r="B72" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="C72" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="D72" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="E72" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="F72" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="G72" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="H72" s="4" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A73" s="3">
+        <v>2019</v>
+      </c>
+      <c r="B73" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="C73" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="D73" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="E73" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F73" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G73" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H73" s="4" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A74" s="3">
+        <v>2019</v>
+      </c>
+      <c r="B74" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="C74" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="D74" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="E74" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F74" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G74" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="H74" s="4" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A75" s="3">
+        <v>2019</v>
+      </c>
+      <c r="B75" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="C75" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="D75" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="E75" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F75" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="G75" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H75" s="4" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A76" s="3">
+        <v>2019</v>
+      </c>
+      <c r="B76" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="C76" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="D76" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="E76" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F76" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G76" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H76" s="4" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A77" s="3">
+        <v>2019</v>
+      </c>
+      <c r="B77" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="C77" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="D77" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="E77" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F77" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="G77" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="H77" s="4" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A78" s="3">
+        <v>2019</v>
+      </c>
+      <c r="B78" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="C78" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="D78" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="E78" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="F78" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G78" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H78" s="4" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A79" s="3">
+        <v>2019</v>
+      </c>
+      <c r="B79" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="C79" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="D79" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="E79" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F79" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G79" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="H79" s="4" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A80" s="3">
+        <v>2019</v>
+      </c>
+      <c r="B80" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="C80" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="D80" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="E80" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F80" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="G80" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H80" s="4" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A81" s="3">
+        <v>2019</v>
+      </c>
+      <c r="B81" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="C81" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="D81" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="E81" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F81" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="G81" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="H81" s="4" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A82" s="3">
+        <v>2018</v>
+      </c>
+      <c r="B82" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="C82" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="D82" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="E82" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F82" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G82" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="H82" s="4" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A83" s="3">
+        <v>2018</v>
+      </c>
+      <c r="B83" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="C83" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="D83" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="E83" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F83" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G83" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H83" s="4" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A84" s="3">
+        <v>2018</v>
+      </c>
+      <c r="B84" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="C84" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="D84" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="E84" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F84" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="G84" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H84" s="4" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A85" s="3">
+        <v>2018</v>
+      </c>
+      <c r="B85" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="C85" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="D85" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="E85" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F85" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G85" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="H85" s="4" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A86" s="3">
+        <v>2018</v>
+      </c>
+      <c r="B86" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="C86" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="D86" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="E86" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F86" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G86" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="H86" s="4" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A87" s="3">
+        <v>2018</v>
+      </c>
+      <c r="B87" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="C87" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="D87" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="E87" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F87" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G87" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="H87" s="4" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A88" s="3">
+        <v>2018</v>
+      </c>
+      <c r="B88" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="C88" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="D88" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="E88" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F88" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G88" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="H88" s="4" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A89" s="3">
+        <v>2018</v>
+      </c>
+      <c r="B89" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="C89" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="D89" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="E89" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F89" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G89" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H89" s="4" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A90" s="3">
+        <v>2018</v>
+      </c>
+      <c r="B90" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="C90" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="D90" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="E90" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F90" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G90" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H90" s="4" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A91" s="3">
+        <v>2018</v>
+      </c>
+      <c r="B91" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="C91" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="D91" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="E91" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="F91" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="G91" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="H91" s="4" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A92" s="3">
+        <v>2018</v>
+      </c>
+      <c r="B92" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="C92" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="D92" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="E92" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F92" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G92" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="H92" s="4" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A93" s="3">
+        <v>2017</v>
+      </c>
+      <c r="B93" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="C93" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="D93" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="E93" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F93" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="G93" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H93" s="4" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A94" s="3">
+        <v>2017</v>
+      </c>
+      <c r="B94" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="C94" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="D94" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="E94" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F94" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G94" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H94" s="4" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A95" s="3">
+        <v>2017</v>
+      </c>
+      <c r="B95" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="C95" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="D95" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="E95" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F95" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="G95" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="H95" s="4" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A96" s="3">
+        <v>2017</v>
+      </c>
+      <c r="B96" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="C96" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="D96" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="E96" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F96" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="G96" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H96" s="4" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A97" s="3">
+        <v>2017</v>
+      </c>
+      <c r="B97" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="C97" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="D97" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="E97" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F97" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="G97" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H97" s="4" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A98" s="3">
+        <v>2017</v>
+      </c>
+      <c r="B98" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="C98" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="D98" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="E98" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F98" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G98" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="H98" s="4" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A99" s="3">
+        <v>2017</v>
+      </c>
+      <c r="B99" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="C99" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="D99" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="E99" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F99" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G99" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="H99" s="4" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A100" s="3">
+        <v>2017</v>
+      </c>
+      <c r="B100" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="C100" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="D100" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="E100" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F100" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G100" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H100" s="4" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A101" s="3">
+        <v>2017</v>
+      </c>
+      <c r="B101" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="C101" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="D101" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="E101" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F101" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G101" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="H101" s="4" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A102" s="3">
+        <v>2017</v>
+      </c>
+      <c r="B102" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="C102" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="D102" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="E102" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F102" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G102" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="H102" s="4" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A103" s="3">
+        <v>2017</v>
+      </c>
+      <c r="B103" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="C103" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="D103" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="E103" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F103" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G103" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="H103" s="4" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A104" s="3">
+        <v>2016</v>
+      </c>
+      <c r="B104" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="C104" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="D104" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="E104" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F104" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="G104" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H104" s="4" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A105" s="3">
+        <v>2016</v>
+      </c>
+      <c r="B105" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="C105" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="D105" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="E105" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F105" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G105" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H105" s="4" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A106" s="3">
+        <v>2016</v>
+      </c>
+      <c r="B106" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="C106" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="D106" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="E106" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="F106" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G106" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="H106" s="4" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A107" s="3">
+        <v>2016</v>
+      </c>
+      <c r="B107" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="C107" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="D107" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="E107" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F107" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="G107" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H107" s="4" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A108" s="3">
+        <v>2016</v>
+      </c>
+      <c r="B108" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="C108" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="D108" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="E108" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F108" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G108" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="H108" s="4" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A109" s="3">
+        <v>2016</v>
+      </c>
+      <c r="B109" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="C109" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="D109" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="E109" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F109" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="G109" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H109" s="4" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A110" s="3">
+        <v>2016</v>
+      </c>
+      <c r="B110" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="C110" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="D110" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="E110" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F110" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G110" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H110" s="4" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A111" s="3">
+        <v>2016</v>
+      </c>
+      <c r="B111" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="C111" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="D111" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="E111" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F111" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="G111" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="H111" s="4" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A112" s="3">
+        <v>2016</v>
+      </c>
+      <c r="B112" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="C112" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="D112" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="E112" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="F112" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="G112" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H112" s="4" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A113" s="3">
+        <v>2016</v>
+      </c>
+      <c r="B113" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="C113" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="D113" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="E113" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="F113" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G113" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H113" s="4" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A114" s="3">
+        <v>2016</v>
+      </c>
+      <c r="B114" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="C114" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="D114" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="E114" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F114" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G114" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H114" s="4" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A115" s="3">
+        <v>2015</v>
+      </c>
+      <c r="B115" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="C115" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="D115" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="E115" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F115" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="G115" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H115" s="4" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A116" s="3">
+        <v>2015</v>
+      </c>
+      <c r="B116" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="C116" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="D116" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="E116" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F116" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G116" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H116" s="4" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A117" s="3">
+        <v>2015</v>
+      </c>
+      <c r="B117" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="C117" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="D117" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="E117" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F117" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G117" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H117" s="4" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A118" s="3">
+        <v>2015</v>
+      </c>
+      <c r="B118" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="C118" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="D118" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="E118" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F118" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G118" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="H118" s="4" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A119" s="3">
+        <v>2015</v>
+      </c>
+      <c r="B119" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="C119" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="D119" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="E119" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F119" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G119" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H119" s="4" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A120" s="3">
+        <v>2015</v>
+      </c>
+      <c r="B120" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="C120" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="D120" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="E120" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F120" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="G120" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="H120" s="4" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A121" s="3">
+        <v>2015</v>
+      </c>
+      <c r="B121" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="C121" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="D121" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="E121" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F121" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G121" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H121" s="4" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A122" s="3">
+        <v>2015</v>
+      </c>
+      <c r="B122" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="C122" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="D122" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="E122" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F122" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G122" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="H122" s="4" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A123" s="3">
+        <v>2015</v>
+      </c>
+      <c r="B123" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="C123" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="D123" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="E123" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="F123" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G123" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H123" s="4" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A124" s="3">
+        <v>2015</v>
+      </c>
+      <c r="B124" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="C124" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="D124" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="E124" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="F124" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G124" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H124" s="4" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A125" s="3">
+        <v>2015</v>
+      </c>
+      <c r="B125" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="C125" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="D125" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="E125" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F125" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G125" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="H125" s="4" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A126" s="3">
+        <v>2014</v>
+      </c>
+      <c r="B126" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="C126" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="D126" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="E126" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F126" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="G126" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="H126" s="4" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A127" s="3">
+        <v>2014</v>
+      </c>
+      <c r="B127" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="C127" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="D127" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="E127" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F127" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G127" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H127" s="4" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A128" s="3">
+        <v>2014</v>
+      </c>
+      <c r="B128" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="C128" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="D128" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="E128" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F128" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G128" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H128" s="4" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A129" s="3">
+        <v>2014</v>
+      </c>
+      <c r="B129" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="C129" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="D129" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="E129" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F129" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G129" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="H129" s="4" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A130" s="3">
+        <v>2014</v>
+      </c>
+      <c r="B130" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="C130" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="D130" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="E130" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F130" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="G130" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="H130" s="4" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A131" s="3">
+        <v>2014</v>
+      </c>
+      <c r="B131" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="C131" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="D131" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="E131" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F131" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G131" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="H131" s="4" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A132" s="3">
+        <v>2014</v>
+      </c>
+      <c r="B132" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="C132" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="D132" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="E132" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F132" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G132" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H132" s="4" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A133" s="3">
+        <v>2014</v>
+      </c>
+      <c r="B133" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="C133" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="D133" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="E133" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F133" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G133" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H133" s="4" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A134" s="3">
+        <v>2014</v>
+      </c>
+      <c r="B134" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="C134" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="D134" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="E134" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F134" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G134" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H134" s="4" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A135" s="3">
+        <v>2014</v>
+      </c>
+      <c r="B135" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="C135" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="D135" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="E135" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="F135" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G135" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="H135" s="4" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A136" s="3">
+        <v>2014</v>
+      </c>
+      <c r="B136" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="C136" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="D136" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="E136" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F136" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G136" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="H136" s="4" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A137" s="3">
+        <v>2013</v>
+      </c>
+      <c r="B137" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="C137" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="D137" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="E137" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="F137" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G137" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H137" s="4" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A138" s="3">
+        <v>2013</v>
+      </c>
+      <c r="B138" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="C138" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="D138" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="E138" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F138" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G138" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H138" s="4" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A139" s="3">
+        <v>2013</v>
+      </c>
+      <c r="B139" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="C139" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="D139" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="E139" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F139" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G139" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="H139" s="4" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A140" s="3">
+        <v>2013</v>
+      </c>
+      <c r="B140" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="C140" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="D140" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="E140" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="F140" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G140" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H140" s="4" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A141" s="3">
+        <v>2013</v>
+      </c>
+      <c r="B141" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="C141" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="D141" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="E141" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="F141" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="G141" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H141" s="4" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A142" s="3">
+        <v>2013</v>
+      </c>
+      <c r="B142" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="C142" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="D142" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="E142" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F142" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G142" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H142" s="4" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A143" s="3">
+        <v>2013</v>
+      </c>
+      <c r="B143" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="C143" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="D143" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="E143" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F143" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G143" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="H143" s="4" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A144" s="3">
+        <v>2013</v>
+      </c>
+      <c r="B144" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="C144" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="D144" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="E144" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="F144" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G144" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H144" s="4" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A145" s="3">
+        <v>2013</v>
+      </c>
+      <c r="B145" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="C145" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="D145" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="E145" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F145" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G145" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H145" s="4" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A146" s="3">
+        <v>2013</v>
+      </c>
+      <c r="B146" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="C146" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="D146" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="E146" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F146" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G146" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="H146" s="4" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A147" s="3">
+        <v>2013</v>
+      </c>
+      <c r="B147" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="C147" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="D147" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="E147" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="F147" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G147" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H147" s="4" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A148" s="3">
+        <v>2012</v>
+      </c>
+      <c r="B148" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="C148" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="D148" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="E148" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="F148" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="G148" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="H148" s="4" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A149" s="3">
+        <v>2012</v>
+      </c>
+      <c r="B149" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="C149" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="D149" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="E149" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F149" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G149" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H149" s="4" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A150" s="3">
+        <v>2012</v>
+      </c>
+      <c r="B150" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="C150" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="D150" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="E150" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F150" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G150" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H150" s="4" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A151" s="3">
+        <v>2012</v>
+      </c>
+      <c r="B151" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="C151" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="D151" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="E151" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F151" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G151" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H151" s="4" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A152" s="3">
+        <v>2012</v>
+      </c>
+      <c r="B152" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="C152" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="D152" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="E152" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F152" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G152" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H152" s="4" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A153" s="3">
+        <v>2012</v>
+      </c>
+      <c r="B153" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="C153" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="D153" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="E153" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F153" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="G153" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H153" s="4" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A154" s="3">
+        <v>2012</v>
+      </c>
+      <c r="B154" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="C154" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="D154" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="E154" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="F154" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G154" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H154" s="4" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A155" s="3">
+        <v>2012</v>
+      </c>
+      <c r="B155" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="C155" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="D155" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="E155" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F155" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G155" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H155" s="4" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A156" s="3">
+        <v>2012</v>
+      </c>
+      <c r="B156" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="C156" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="D156" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="E156" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F156" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G156" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="H156" s="4" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A157" s="3">
+        <v>2012</v>
+      </c>
+      <c r="B157" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="C157" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="D157" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="E157" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F157" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G157" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="H157" s="4" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A158" s="3">
+        <v>2012</v>
+      </c>
+      <c r="B158" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="C158" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="D158" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="E158" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F158" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G158" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H158" s="4" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A159" s="3">
+        <v>2011</v>
+      </c>
+      <c r="B159" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="C159" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="D159" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="E159" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F159" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="G159" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="H159" s="4" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A160" s="3">
+        <v>2011</v>
+      </c>
+      <c r="B160" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="C160" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="D160" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="E160" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F160" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G160" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H160" s="4" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A161" s="3">
+        <v>2011</v>
+      </c>
+      <c r="B161" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="C161" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="D161" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="E161" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F161" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G161" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H161" s="4" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A162" s="3">
+        <v>2011</v>
+      </c>
+      <c r="B162" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="C162" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="D162" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="E162" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="F162" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G162" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H162" s="4" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A163" s="3">
+        <v>2011</v>
+      </c>
+      <c r="B163" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="C163" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="D163" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="E163" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F163" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G163" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="H163" s="4" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A164" s="3">
+        <v>2011</v>
+      </c>
+      <c r="B164" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="C164" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="D164" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="E164" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F164" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G164" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="H164" s="4" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A165" s="3">
+        <v>2011</v>
+      </c>
+      <c r="B165" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="C165" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="D165" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="E165" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F165" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G165" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H165" s="4" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A166" s="3">
+        <v>2011</v>
+      </c>
+      <c r="B166" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="C166" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="D166" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="E166" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F166" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G166" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H166" s="4" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A167" s="3">
+        <v>2011</v>
+      </c>
+      <c r="B167" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="C167" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="D167" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="E167" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F167" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G167" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H167" s="4" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A168" s="3">
+        <v>2011</v>
+      </c>
+      <c r="B168" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="C168" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="D168" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="E168" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="F168" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G168" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H168" s="4" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A169" s="3">
+        <v>2011</v>
+      </c>
+      <c r="B169" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="C169" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="D169" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="E169" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F169" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G169" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="H169" s="4" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A170" s="3">
+        <v>2010</v>
+      </c>
+      <c r="B170" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="C170" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="D170" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="E170" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F170" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G170" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="H170" s="4" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A171" s="3">
+        <v>2010</v>
+      </c>
+      <c r="B171" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="C171" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="D171" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="E171" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F171" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G171" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H171" s="4" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A172" s="3">
+        <v>2010</v>
+      </c>
+      <c r="B172" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="C172" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="D172" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="E172" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F172" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="G172" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H172" s="4" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A173" s="3">
+        <v>2010</v>
+      </c>
+      <c r="B173" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="C173" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="D173" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="E173" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F173" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G173" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="H173" s="4" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A174" s="3">
+        <v>2010</v>
+      </c>
+      <c r="B174" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="C174" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="D174" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="E174" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F174" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G174" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H174" s="4" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A175" s="3">
+        <v>2010</v>
+      </c>
+      <c r="B175" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="C175" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="D175" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="E175" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F175" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G175" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H175" s="4" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A176" s="3">
+        <v>2010</v>
+      </c>
+      <c r="B176" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="C176" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="D176" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="E176" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F176" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="G176" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="H176" s="4" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="177" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A177" s="3">
+        <v>2010</v>
+      </c>
+      <c r="B177" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="C177" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="D177" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="E177" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F177" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G177" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H177" s="4" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="178" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A178" s="3">
+        <v>2010</v>
+      </c>
+      <c r="B178" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="C178" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="D178" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="E178" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F178" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G178" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H178" s="4" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="179" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A179" s="3">
+        <v>2010</v>
+      </c>
+      <c r="B179" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="C179" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="D179" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="E179" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F179" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="G179" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="H179" s="4" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="180" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A180" s="3">
+        <v>2010</v>
+      </c>
+      <c r="B180" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="C180" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="D180" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="E180" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F180" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G180" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H180" s="4" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="181" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A181" s="3">
+        <v>2009</v>
+      </c>
+      <c r="B181" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="C181" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="D181" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="E181" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F181" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G181" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H181" s="4" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="182" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A182" s="3">
+        <v>2009</v>
+      </c>
+      <c r="B182" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="C182" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="D182" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="E182" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F182" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G182" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H182" s="4" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="183" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A183" s="3">
+        <v>2009</v>
+      </c>
+      <c r="B183" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="C183" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="D183" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="E183" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F183" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G183" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H183" s="4" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="184" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A184" s="3">
+        <v>2009</v>
+      </c>
+      <c r="B184" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="C184" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="D184" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="E184" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F184" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G184" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="H184" s="4" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="185" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A185" s="3">
+        <v>2009</v>
+      </c>
+      <c r="B185" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="C185" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="D185" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="E185" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F185" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G185" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H185" s="4" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="186" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A186" s="3">
+        <v>2009</v>
+      </c>
+      <c r="B186" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="C186" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="D186" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="E186" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F186" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G186" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="H186" s="4" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="187" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A187" s="3">
+        <v>2009</v>
+      </c>
+      <c r="B187" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="C187" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="D187" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="E187" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F187" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G187" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="H187" s="4" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="188" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A188" s="3">
+        <v>2009</v>
+      </c>
+      <c r="B188" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="C188" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="D188" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="E188" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F188" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G188" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H188" s="4" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="189" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A189" s="3">
+        <v>2009</v>
+      </c>
+      <c r="B189" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="C189" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="D189" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="E189" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F189" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G189" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="H189" s="4" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="190" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A190" s="3">
+        <v>2009</v>
+      </c>
+      <c r="B190" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="C190" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="D190" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="E190" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F190" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="G190" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H190" s="4" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="191" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A191" s="3">
+        <v>2008</v>
+      </c>
+      <c r="B191" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="C191" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="D191" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="E191" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="F191" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="G191" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="H191" s="4" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="192" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A192" s="3">
+        <v>2008</v>
+      </c>
+      <c r="B192" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="C192" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="D192" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="E192" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F192" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="G192" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="H192" s="4" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="193" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A193" s="3">
+        <v>2008</v>
+      </c>
+      <c r="B193" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="C193" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="D193" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="E193" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F193" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="G193" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="H193" s="4" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="194" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A194" s="3">
+        <v>2008</v>
+      </c>
+      <c r="B194" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="C194" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="D194" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="E194" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="F194" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G194" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="H194" s="4" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="195" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A195" s="3">
+        <v>2008</v>
+      </c>
+      <c r="B195" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="C195" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="D195" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="E195" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F195" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G195" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="H195" s="4" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="196" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A196" s="3">
+        <v>2008</v>
+      </c>
+      <c r="B196" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="C196" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="D196" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="E196" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="F196" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="G196" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="H196" s="4" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="197" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A197" s="3">
+        <v>2008</v>
+      </c>
+      <c r="B197" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="C197" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="D197" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="E197" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F197" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="G197" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H197" s="4" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="198" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A198" s="3">
+        <v>2008</v>
+      </c>
+      <c r="B198" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="C198" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="D198" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="E198" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F198" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G198" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="H198" s="4" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="199" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A199" s="3">
+        <v>2008</v>
+      </c>
+      <c r="B199" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="C199" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="D199" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="E199" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F199" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G199" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H199" s="4" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="200" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A200" s="3">
+        <v>2008</v>
+      </c>
+      <c r="B200" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="C200" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="D200" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="E200" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="F200" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="G200" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="H200" s="4" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="201" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A201" s="3">
+        <v>2008</v>
+      </c>
+      <c r="B201" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="C201" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="D201" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="E201" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="F201" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G201" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="H201" s="4" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="202" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A202" s="3">
+        <v>2020</v>
+      </c>
+      <c r="B202" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="C202" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="D202" s="5" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="203" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A203" s="3">
+        <v>2020</v>
+      </c>
+      <c r="B203" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="C203" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="D203" s="5" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="204" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A204" s="3">
+        <v>2020</v>
+      </c>
+      <c r="B204" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="C204" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="D204" s="5" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="205" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A205" s="3">
+        <v>2020</v>
+      </c>
+      <c r="B205" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="C205" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="D205" s="5" t="s">
+        <v>239</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:H205" xr:uid="{67AC5DCB-00CB-42A4-971D-487161262978}"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{924E237D-734F-4E04-892E-7F2BB31BB0F6}">
+  <dimension ref="A1:E31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="16.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="4">
+        <v>2025</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="4">
+        <v>2024</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="4">
+        <v>2023</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="4">
+        <v>2022</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="4">
+        <v>2021</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="4">
+        <v>2020</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="4">
+        <v>2020</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="4">
+        <v>2019</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="4">
+        <v>2018</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="4">
+        <v>2017</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="4">
+        <v>2016</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="4">
+        <v>2015</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="4">
+        <v>2014</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="4">
+        <v>2013</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="4">
+        <v>2012</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="4">
+        <v>2011</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="4">
+        <v>2010</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="4">
+        <v>2009</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="4">
+        <v>2008</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="4">
+        <v>2007</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="4">
+        <v>2006</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="4">
+        <v>2005</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="4">
+        <v>2004</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="4">
+        <v>2003</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="4">
+        <v>2002</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="4">
+        <v>2001</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="4">
+        <v>2000</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="4">
+        <v>1999</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="4">
+        <v>1998</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="4">
+        <v>1997</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E31" s="4" t="s">
         <v>14</v>
       </c>
     </row>

--- a/deelnemers/data/project_mmb_data.xlsx
+++ b/deelnemers/data/project_mmb_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://digipolis-my.sharepoint.com/personal/bert_daemen_antwerpen_be/Documents/Documenten/Persoonlijk/Project_IT/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="139" documentId="8_{0A17A78B-B827-4089-82F3-7CEF92ACC5FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CFB888F8-3CDD-43AE-A784-A909C5F0E2B5}"/>
+  <xr:revisionPtr revIDLastSave="159" documentId="8_{0A17A78B-B827-4089-82F3-7CEF92ACC5FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{21E5A97C-8FC6-4CC5-886E-55714BB93341}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{E8305925-36F0-469E-9A71-A7CAC46C7E2B}"/>
+    <workbookView xWindow="720" yWindow="645" windowWidth="28185" windowHeight="13455" activeTab="2" xr2:uid="{E8305925-36F0-469E-9A71-A7CAC46C7E2B}"/>
   </bookViews>
   <sheets>
     <sheet name="deelnemers" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1813" uniqueCount="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1800" uniqueCount="246">
   <si>
     <t>Wim Vangheluwe</t>
   </si>
@@ -201,9 +201,6 @@
     <t>Roel Joosen</t>
   </si>
   <si>
-    <t>William Hunt</t>
-  </si>
-  <si>
     <t>Hugo Vos</t>
   </si>
   <si>
@@ -712,9 +709,6 @@
   </si>
   <si>
     <t>Martine Bryon;Peter Budts</t>
-  </si>
-  <si>
-    <t>geen</t>
   </si>
   <si>
     <t>uitslag open</t>
@@ -876,7 +870,28 @@
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1208,7 +1223,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B826E3B9-CC8E-4641-AF3A-7BCEE4C388D3}">
   <dimension ref="A1:F68"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
@@ -1222,41 +1237,41 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C1" t="s">
         <v>164</v>
       </c>
-      <c r="B1" t="s">
-        <v>169</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>165</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>166</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>167</v>
-      </c>
-      <c r="F1" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B2" t="s">
         <v>149</v>
       </c>
-      <c r="B2" t="s">
-        <v>150</v>
-      </c>
       <c r="C2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C3" t="s">
         <v>42</v>
@@ -1264,10 +1279,10 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C4" t="s">
         <v>21</v>
@@ -1275,10 +1290,10 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>113</v>
+      </c>
+      <c r="B5" t="s">
         <v>114</v>
-      </c>
-      <c r="B5" t="s">
-        <v>115</v>
       </c>
       <c r="C5" t="s">
         <v>30</v>
@@ -1286,21 +1301,21 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B6" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>83</v>
+      </c>
+      <c r="B7" t="s">
         <v>84</v>
-      </c>
-      <c r="B7" t="s">
-        <v>85</v>
       </c>
       <c r="C7" t="s">
         <v>10</v>
@@ -1308,10 +1323,10 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B8" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C8" t="s">
         <v>36</v>
@@ -1319,21 +1334,21 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B9" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B10" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C10" t="s">
         <v>33</v>
@@ -1341,10 +1356,10 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B11" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C11" t="s">
         <v>47</v>
@@ -1352,10 +1367,10 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>107</v>
+      </c>
+      <c r="B12" t="s">
         <v>108</v>
-      </c>
-      <c r="B12" t="s">
-        <v>109</v>
       </c>
       <c r="C12" t="s">
         <v>26</v>
@@ -1363,32 +1378,32 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>150</v>
+      </c>
+      <c r="B13" t="s">
         <v>151</v>
       </c>
-      <c r="B13" t="s">
-        <v>152</v>
-      </c>
       <c r="C13" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B14" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>119</v>
+      </c>
+      <c r="B15" t="s">
         <v>120</v>
-      </c>
-      <c r="B15" t="s">
-        <v>121</v>
       </c>
       <c r="C15" t="s">
         <v>34</v>
@@ -1396,10 +1411,10 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B16" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C16" t="s">
         <v>41</v>
@@ -1407,10 +1422,10 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B17" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C17" t="s">
         <v>39</v>
@@ -1418,54 +1433,54 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B18" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C18" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B19" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C19" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
+        <v>146</v>
+      </c>
+      <c r="B20" t="s">
         <v>147</v>
       </c>
-      <c r="B20" t="s">
-        <v>148</v>
-      </c>
       <c r="C20" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
+        <v>154</v>
+      </c>
+      <c r="B21" t="s">
         <v>155</v>
       </c>
-      <c r="B21" t="s">
-        <v>156</v>
-      </c>
       <c r="C21" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B22" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C22" t="s">
         <v>45</v>
@@ -1473,21 +1488,21 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B23" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C23" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
+        <v>90</v>
+      </c>
+      <c r="B24" t="s">
         <v>91</v>
-      </c>
-      <c r="B24" t="s">
-        <v>92</v>
       </c>
       <c r="C24" t="s">
         <v>14</v>
@@ -1495,10 +1510,10 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
+        <v>103</v>
+      </c>
+      <c r="B25" t="s">
         <v>104</v>
-      </c>
-      <c r="B25" t="s">
-        <v>105</v>
       </c>
       <c r="C25" t="s">
         <v>23</v>
@@ -1506,10 +1521,10 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B26" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C26" t="s">
         <v>40</v>
@@ -1517,21 +1532,21 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B27" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C27" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
+        <v>78</v>
+      </c>
+      <c r="B28" t="s">
         <v>79</v>
-      </c>
-      <c r="B28" t="s">
-        <v>80</v>
       </c>
       <c r="C28" t="s">
         <v>7</v>
@@ -1539,10 +1554,10 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B29" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C29" t="s">
         <v>9</v>
@@ -1550,10 +1565,10 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B30" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C30" t="s">
         <v>17</v>
@@ -1561,10 +1576,10 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B31" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C31" t="s">
         <v>22</v>
@@ -1572,10 +1587,10 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
+        <v>85</v>
+      </c>
+      <c r="B32" t="s">
         <v>86</v>
-      </c>
-      <c r="B32" t="s">
-        <v>87</v>
       </c>
       <c r="C32" t="s">
         <v>11</v>
@@ -1583,10 +1598,10 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B33" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C33" t="s">
         <v>50</v>
@@ -1594,10 +1609,10 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
+        <v>66</v>
+      </c>
+      <c r="B34" t="s">
         <v>67</v>
-      </c>
-      <c r="B34" t="s">
-        <v>68</v>
       </c>
       <c r="C34" t="s">
         <v>1</v>
@@ -1605,10 +1620,10 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
+        <v>74</v>
+      </c>
+      <c r="B35" t="s">
         <v>75</v>
-      </c>
-      <c r="B35" t="s">
-        <v>76</v>
       </c>
       <c r="C35" t="s">
         <v>5</v>
@@ -1616,21 +1631,21 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
+        <v>152</v>
+      </c>
+      <c r="B36" t="s">
         <v>153</v>
       </c>
-      <c r="B36" t="s">
-        <v>154</v>
-      </c>
       <c r="C36" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
+        <v>72</v>
+      </c>
+      <c r="B37" t="s">
         <v>73</v>
-      </c>
-      <c r="B37" t="s">
-        <v>74</v>
       </c>
       <c r="C37" t="s">
         <v>4</v>
@@ -1638,10 +1653,10 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B38" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C38" t="s">
         <v>6</v>
@@ -1649,10 +1664,10 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
+        <v>70</v>
+      </c>
+      <c r="B39" t="s">
         <v>71</v>
-      </c>
-      <c r="B39" t="s">
-        <v>72</v>
       </c>
       <c r="C39" t="s">
         <v>3</v>
@@ -1660,21 +1675,21 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
+        <v>144</v>
+      </c>
+      <c r="B40" t="s">
         <v>145</v>
       </c>
-      <c r="B40" t="s">
-        <v>146</v>
-      </c>
       <c r="C40" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
+        <v>80</v>
+      </c>
+      <c r="B41" t="s">
         <v>81</v>
-      </c>
-      <c r="B41" t="s">
-        <v>82</v>
       </c>
       <c r="C41" t="s">
         <v>8</v>
@@ -1682,10 +1697,10 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
+        <v>105</v>
+      </c>
+      <c r="B42" t="s">
         <v>106</v>
-      </c>
-      <c r="B42" t="s">
-        <v>107</v>
       </c>
       <c r="C42" t="s">
         <v>25</v>
@@ -1693,10 +1708,10 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B43" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C43" t="s">
         <v>37</v>
@@ -1704,10 +1719,10 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B44" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C44" t="s">
         <v>43</v>
@@ -1715,10 +1730,10 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
+        <v>115</v>
+      </c>
+      <c r="B45" t="s">
         <v>116</v>
-      </c>
-      <c r="B45" t="s">
-        <v>117</v>
       </c>
       <c r="C45" t="s">
         <v>31</v>
@@ -1726,10 +1741,10 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
+        <v>109</v>
+      </c>
+      <c r="B46" t="s">
         <v>110</v>
-      </c>
-      <c r="B46" t="s">
-        <v>111</v>
       </c>
       <c r="C46" t="s">
         <v>27</v>
@@ -1737,10 +1752,10 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B47" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C47" t="s">
         <v>44</v>
@@ -1748,10 +1763,10 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
+        <v>135</v>
+      </c>
+      <c r="B48" t="s">
         <v>136</v>
-      </c>
-      <c r="B48" t="s">
-        <v>137</v>
       </c>
       <c r="C48" t="s">
         <v>51</v>
@@ -1759,10 +1774,10 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B49" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C49" t="s">
         <v>19</v>
@@ -1770,10 +1785,10 @@
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B50" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C50" t="s">
         <v>46</v>
@@ -1781,10 +1796,10 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
+        <v>132</v>
+      </c>
+      <c r="B51" t="s">
         <v>133</v>
-      </c>
-      <c r="B51" t="s">
-        <v>134</v>
       </c>
       <c r="C51" t="s">
         <v>49</v>
@@ -1792,10 +1807,10 @@
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B52" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C52" t="s">
         <v>13</v>
@@ -1803,10 +1818,10 @@
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B53" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C53" t="s">
         <v>35</v>
@@ -1814,10 +1829,10 @@
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
+        <v>92</v>
+      </c>
+      <c r="B54" t="s">
         <v>93</v>
-      </c>
-      <c r="B54" t="s">
-        <v>94</v>
       </c>
       <c r="C54" t="s">
         <v>15</v>
@@ -1825,10 +1840,10 @@
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
+        <v>87</v>
+      </c>
+      <c r="B55" t="s">
         <v>88</v>
-      </c>
-      <c r="B55" t="s">
-        <v>89</v>
       </c>
       <c r="C55" t="s">
         <v>12</v>
@@ -1836,10 +1851,10 @@
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
+        <v>94</v>
+      </c>
+      <c r="B56" t="s">
         <v>95</v>
-      </c>
-      <c r="B56" t="s">
-        <v>96</v>
       </c>
       <c r="C56" t="s">
         <v>16</v>
@@ -1847,10 +1862,10 @@
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B57" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C57" t="s">
         <v>24</v>
@@ -1858,10 +1873,10 @@
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B58" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C58" t="s">
         <v>32</v>
@@ -1869,21 +1884,21 @@
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B59" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C59" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
+        <v>68</v>
+      </c>
+      <c r="B60" t="s">
         <v>69</v>
-      </c>
-      <c r="B60" t="s">
-        <v>70</v>
       </c>
       <c r="C60" t="s">
         <v>2</v>
@@ -1891,10 +1906,10 @@
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B61" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C61" t="s">
         <v>29</v>
@@ -1902,10 +1917,10 @@
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B62" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C62" t="s">
         <v>20</v>
@@ -1913,21 +1928,21 @@
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B63" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C63" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B64" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C64" t="s">
         <v>48</v>
@@ -1935,10 +1950,10 @@
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
+        <v>64</v>
+      </c>
+      <c r="B65" t="s">
         <v>65</v>
-      </c>
-      <c r="B65" t="s">
-        <v>66</v>
       </c>
       <c r="C65" t="s">
         <v>0</v>
@@ -1946,10 +1961,10 @@
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C66" t="s">
         <v>28</v>
@@ -1957,10 +1972,10 @@
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B67" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C67" t="s">
         <v>38</v>
@@ -1968,10 +1983,10 @@
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
+        <v>97</v>
+      </c>
+      <c r="B68" t="s">
         <v>98</v>
-      </c>
-      <c r="B68" t="s">
-        <v>99</v>
       </c>
       <c r="C68" t="s">
         <v>18</v>
@@ -1999,33 +2014,33 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>209</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>172</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>173</v>
       </c>
       <c r="E2" s="1">
         <v>1</v>
@@ -2033,16 +2048,16 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>176</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>177</v>
       </c>
       <c r="E3" s="1">
         <v>2</v>
@@ -2050,16 +2065,16 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>180</v>
-      </c>
       <c r="D4" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E4" s="1">
         <v>3</v>
@@ -2067,16 +2082,16 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>182</v>
-      </c>
       <c r="D5" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E5" s="1">
         <v>4</v>
@@ -2084,16 +2099,16 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>184</v>
-      </c>
       <c r="D6" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E6" s="1">
         <v>5</v>
@@ -2101,16 +2116,16 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>186</v>
-      </c>
       <c r="D7" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E7" s="1">
         <v>6</v>
@@ -2118,16 +2133,16 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="C8" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>189</v>
-      </c>
       <c r="D8" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E8" s="1">
         <v>7</v>
@@ -2135,16 +2150,16 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="C9" s="1" t="s">
+      <c r="D9" s="1" t="s">
         <v>191</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>192</v>
       </c>
       <c r="E9" s="1">
         <v>8</v>
@@ -2152,16 +2167,16 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>194</v>
-      </c>
       <c r="D10" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E10" s="1">
         <v>9</v>
@@ -2169,16 +2184,16 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="C11" s="1" t="s">
+      <c r="D11" s="1" t="s">
         <v>196</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>197</v>
       </c>
       <c r="E11" s="1">
         <v>10</v>
@@ -2186,16 +2201,16 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>199</v>
-      </c>
       <c r="D12" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E12" s="1">
         <v>11</v>
@@ -2203,16 +2218,16 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>201</v>
-      </c>
       <c r="D13" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E13" s="1">
         <v>12</v>
@@ -2220,16 +2235,16 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>203</v>
-      </c>
       <c r="D14" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E14" s="1">
         <v>13</v>
@@ -2237,16 +2252,16 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>205</v>
-      </c>
       <c r="D15" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E15" s="1">
         <v>14</v>
@@ -2261,44 +2276,39 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67AC5DCB-00CB-42A4-971D-487161262978}">
   <dimension ref="A1:H205"/>
   <sheetViews>
-    <sheetView topLeftCell="A39" workbookViewId="0">
-      <selection activeCell="F56" sqref="F56"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F208" sqref="F208"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="14.5703125" customWidth="1"/>
-    <col min="4" max="4" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.42578125" customWidth="1"/>
-    <col min="6" max="6" width="25.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="8" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>217</v>
-      </c>
       <c r="H1" s="2" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -2306,13 +2316,13 @@
         <v>2025</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>30</v>
@@ -2324,7 +2334,7 @@
         <v>36</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -2332,13 +2342,13 @@
         <v>2025</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>31</v>
@@ -2350,7 +2360,7 @@
         <v>25</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -2358,13 +2368,13 @@
         <v>2025</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>3</v>
@@ -2376,7 +2386,7 @@
         <v>9</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -2384,13 +2394,13 @@
         <v>2025</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>1</v>
@@ -2402,7 +2412,7 @@
         <v>25</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -2410,13 +2420,13 @@
         <v>2025</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>27</v>
@@ -2428,7 +2438,7 @@
         <v>17</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -2436,13 +2446,13 @@
         <v>2025</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>32</v>
@@ -2454,7 +2464,7 @@
         <v>19</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -2462,13 +2472,13 @@
         <v>2025</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>0</v>
@@ -2477,10 +2487,10 @@
         <v>33</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -2488,13 +2498,13 @@
         <v>2025</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>0</v>
@@ -2506,7 +2516,7 @@
         <v>10</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -2514,13 +2524,13 @@
         <v>2025</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E10" s="4" t="s">
         <v>31</v>
@@ -2532,7 +2542,7 @@
         <v>25</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -2540,13 +2550,13 @@
         <v>2025</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E11" s="4" t="s">
         <v>17</v>
@@ -2558,7 +2568,7 @@
         <v>8</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -2566,13 +2576,13 @@
         <v>2025</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E12" s="4" t="s">
         <v>26</v>
@@ -2584,7 +2594,7 @@
         <v>19</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -2592,13 +2602,13 @@
         <v>2025</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E13" s="4" t="s">
         <v>33</v>
@@ -2607,10 +2617,10 @@
         <v>0</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -2618,13 +2628,13 @@
         <v>2024</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E14" s="4" t="s">
         <v>34</v>
@@ -2636,7 +2646,7 @@
         <v>42</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -2644,13 +2654,13 @@
         <v>2024</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E15" s="4" t="s">
         <v>21</v>
@@ -2662,7 +2672,7 @@
         <v>19</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -2670,13 +2680,13 @@
         <v>2024</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E16" s="4" t="s">
         <v>26</v>
@@ -2688,7 +2698,7 @@
         <v>19</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -2696,13 +2706,13 @@
         <v>2024</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E17" s="4" t="s">
         <v>2</v>
@@ -2714,7 +2724,7 @@
         <v>35</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
@@ -2722,13 +2732,13 @@
         <v>2024</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E18" s="4" t="s">
         <v>8</v>
@@ -2740,7 +2750,7 @@
         <v>18</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -2748,13 +2758,13 @@
         <v>2024</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E19" s="4" t="s">
         <v>35</v>
@@ -2766,7 +2776,7 @@
         <v>39</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
@@ -2774,13 +2784,13 @@
         <v>2024</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E20" s="4" t="s">
         <v>18</v>
@@ -2792,7 +2802,7 @@
         <v>37</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -2800,13 +2810,13 @@
         <v>2024</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E21" s="4" t="s">
         <v>36</v>
@@ -2818,7 +2828,7 @@
         <v>1</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
@@ -2826,13 +2836,13 @@
         <v>2024</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E22" s="4" t="s">
         <v>12</v>
@@ -2844,7 +2854,7 @@
         <v>18</v>
       </c>
       <c r="H22" s="4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
@@ -2852,13 +2862,13 @@
         <v>2024</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E23" s="4" t="s">
         <v>1</v>
@@ -2870,7 +2880,7 @@
         <v>4</v>
       </c>
       <c r="H23" s="4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
@@ -2878,13 +2888,13 @@
         <v>2024</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E24" s="4" t="s">
         <v>26</v>
@@ -2896,7 +2906,7 @@
         <v>19</v>
       </c>
       <c r="H24" s="4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
@@ -2904,13 +2914,13 @@
         <v>2024</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E25" s="4" t="s">
         <v>18</v>
@@ -2922,7 +2932,7 @@
         <v>21</v>
       </c>
       <c r="H25" s="4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
@@ -2930,25 +2940,23 @@
         <v>2023</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>222</v>
-      </c>
-      <c r="F26" s="4" t="s">
-        <v>223</v>
-      </c>
+        <v>221</v>
+      </c>
+      <c r="F26" s="4"/>
       <c r="G26" s="4" t="s">
         <v>7</v>
       </c>
       <c r="H26" s="4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
@@ -2956,13 +2964,13 @@
         <v>2023</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E27" s="4" t="s">
         <v>37</v>
@@ -2974,7 +2982,7 @@
         <v>19</v>
       </c>
       <c r="H27" s="4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
@@ -2982,13 +2990,13 @@
         <v>2023</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E28" s="4" t="s">
         <v>38</v>
@@ -3000,7 +3008,7 @@
         <v>26</v>
       </c>
       <c r="H28" s="4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
@@ -3008,13 +3016,13 @@
         <v>2023</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E29" s="4" t="s">
         <v>0</v>
@@ -3026,7 +3034,7 @@
         <v>14</v>
       </c>
       <c r="H29" s="4" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
@@ -3034,25 +3042,23 @@
         <v>2023</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>225</v>
-      </c>
-      <c r="F30" s="4" t="s">
         <v>223</v>
       </c>
+      <c r="F30" s="4"/>
       <c r="G30" s="4" t="s">
         <v>3</v>
       </c>
       <c r="H30" s="4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
@@ -3060,13 +3066,13 @@
         <v>2023</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E31" s="4" t="s">
         <v>0</v>
@@ -3078,7 +3084,7 @@
         <v>44</v>
       </c>
       <c r="H31" s="4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
@@ -3086,13 +3092,13 @@
         <v>2023</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E32" s="4" t="s">
         <v>15</v>
@@ -3104,7 +3110,7 @@
         <v>8</v>
       </c>
       <c r="H32" s="4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
@@ -3112,13 +3118,13 @@
         <v>2023</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E33" s="4" t="s">
         <v>2</v>
@@ -3127,10 +3133,10 @@
         <v>6</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="H33" s="4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
@@ -3138,13 +3144,13 @@
         <v>2023</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E34" s="4" t="s">
         <v>38</v>
@@ -3156,7 +3162,7 @@
         <v>29</v>
       </c>
       <c r="H34" s="4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
@@ -3164,13 +3170,13 @@
         <v>2023</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E35" s="4" t="s">
         <v>2</v>
@@ -3182,7 +3188,7 @@
         <v>3</v>
       </c>
       <c r="H35" s="4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
@@ -3190,13 +3196,13 @@
         <v>2023</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E36" s="4" t="s">
         <v>38</v>
@@ -3208,7 +3214,7 @@
         <v>0</v>
       </c>
       <c r="H36" s="4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
@@ -3216,25 +3222,23 @@
         <v>2023</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>222</v>
-      </c>
-      <c r="F37" s="4" t="s">
-        <v>223</v>
-      </c>
+        <v>221</v>
+      </c>
+      <c r="F37" s="4"/>
       <c r="G37" s="4" t="s">
         <v>8</v>
       </c>
       <c r="H37" s="4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
@@ -3242,13 +3246,13 @@
         <v>2022</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E38" s="4" t="s">
         <v>1</v>
@@ -3260,7 +3264,7 @@
         <v>12</v>
       </c>
       <c r="H38" s="4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
@@ -3268,13 +3272,13 @@
         <v>2022</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E39" s="4" t="s">
         <v>29</v>
@@ -3286,7 +3290,7 @@
         <v>14</v>
       </c>
       <c r="H39" s="4" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
@@ -3294,25 +3298,25 @@
         <v>2022</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E40" s="4" t="s">
         <v>40</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G40" s="4" t="s">
         <v>27</v>
       </c>
       <c r="H40" s="4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
@@ -3320,25 +3324,23 @@
         <v>2022</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>227</v>
-      </c>
-      <c r="F41" s="4" t="s">
-        <v>223</v>
-      </c>
+        <v>225</v>
+      </c>
+      <c r="F41" s="4"/>
       <c r="G41" s="4" t="s">
         <v>14</v>
       </c>
       <c r="H41" s="4" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
@@ -3346,25 +3348,25 @@
         <v>2022</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E42" s="4" t="s">
         <v>20</v>
       </c>
       <c r="F42" s="4" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="G42" s="4" t="s">
         <v>38</v>
       </c>
       <c r="H42" s="4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
@@ -3372,13 +3374,13 @@
         <v>2022</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E43" s="4" t="s">
         <v>6</v>
@@ -3390,7 +3392,7 @@
         <v>10</v>
       </c>
       <c r="H43" s="4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
@@ -3398,13 +3400,13 @@
         <v>2022</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E44" s="4" t="s">
         <v>29</v>
@@ -3416,7 +3418,7 @@
         <v>27</v>
       </c>
       <c r="H44" s="4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
@@ -3424,13 +3426,13 @@
         <v>2022</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E45" s="4" t="s">
         <v>19</v>
@@ -3442,7 +3444,7 @@
         <v>14</v>
       </c>
       <c r="H45" s="4" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
@@ -3450,13 +3452,13 @@
         <v>2022</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E46" s="4" t="s">
         <v>39</v>
@@ -3465,10 +3467,10 @@
         <v>35</v>
       </c>
       <c r="G46" s="4" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H46" s="4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
@@ -3476,13 +3478,13 @@
         <v>2022</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E47" s="4" t="s">
         <v>3</v>
@@ -3494,7 +3496,7 @@
         <v>14</v>
       </c>
       <c r="H47" s="4" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
@@ -3502,13 +3504,13 @@
         <v>2022</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E48" s="4" t="s">
         <v>19</v>
@@ -3520,7 +3522,7 @@
         <v>14</v>
       </c>
       <c r="H48" s="4" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
@@ -3528,13 +3530,13 @@
         <v>2022</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E49" s="4" t="s">
         <v>10</v>
@@ -3546,7 +3548,7 @@
         <v>27</v>
       </c>
       <c r="H49" s="4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
@@ -3554,13 +3556,13 @@
         <v>2021</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E50" s="4" t="s">
         <v>37</v>
@@ -3572,7 +3574,7 @@
         <v>14</v>
       </c>
       <c r="H50" s="4" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
@@ -3580,13 +3582,13 @@
         <v>2021</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E51" s="4" t="s">
         <v>31</v>
@@ -3598,7 +3600,7 @@
         <v>12</v>
       </c>
       <c r="H51" s="4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
@@ -3606,13 +3608,13 @@
         <v>2021</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E52" s="4" t="s">
         <v>38</v>
@@ -3624,7 +3626,7 @@
         <v>33</v>
       </c>
       <c r="H52" s="4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
@@ -3632,13 +3634,13 @@
         <v>2021</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E53" s="4" t="s">
         <v>10</v>
@@ -3650,7 +3652,7 @@
         <v>4</v>
       </c>
       <c r="H53" s="4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
@@ -3658,13 +3660,13 @@
         <v>2021</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E54" s="4" t="s">
         <v>26</v>
@@ -3676,7 +3678,7 @@
         <v>40</v>
       </c>
       <c r="H54" s="4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
@@ -3684,13 +3686,13 @@
         <v>2021</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E55" s="4" t="s">
         <v>19</v>
@@ -3702,7 +3704,7 @@
         <v>33</v>
       </c>
       <c r="H55" s="4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
@@ -3710,25 +3712,25 @@
         <v>2021</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E56" s="4" t="s">
         <v>41</v>
       </c>
       <c r="F56" s="4" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="G56" s="4" t="s">
         <v>14</v>
       </c>
       <c r="H56" s="4" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
@@ -3736,13 +3738,13 @@
         <v>2021</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E57" s="4" t="s">
         <v>4</v>
@@ -3754,7 +3756,7 @@
         <v>12</v>
       </c>
       <c r="H57" s="4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
@@ -3762,13 +3764,13 @@
         <v>2021</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E58" s="4" t="s">
         <v>26</v>
@@ -3777,10 +3779,10 @@
         <v>4</v>
       </c>
       <c r="G58" s="4" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="H58" s="4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
@@ -3788,25 +3790,21 @@
         <v>2021</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E59" s="4" t="s">
-        <v>230</v>
-      </c>
-      <c r="F59" s="4" t="s">
-        <v>223</v>
-      </c>
-      <c r="G59" s="4" t="s">
-        <v>223</v>
-      </c>
+        <v>228</v>
+      </c>
+      <c r="F59" s="4"/>
+      <c r="G59" s="4"/>
       <c r="H59" s="4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
@@ -3814,25 +3812,21 @@
         <v>2021</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D60" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E60" s="4" t="s">
-        <v>231</v>
-      </c>
-      <c r="F60" s="4" t="s">
-        <v>223</v>
-      </c>
-      <c r="G60" s="4" t="s">
-        <v>223</v>
-      </c>
+        <v>229</v>
+      </c>
+      <c r="F60" s="4"/>
+      <c r="G60" s="4"/>
       <c r="H60" s="4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
@@ -3840,13 +3834,13 @@
         <v>2020</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D61" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E61" s="4" t="s">
         <v>7</v>
@@ -3858,7 +3852,7 @@
         <v>14</v>
       </c>
       <c r="H61" s="4" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
@@ -3866,13 +3860,13 @@
         <v>2020</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D62" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E62" s="4" t="s">
         <v>35</v>
@@ -3884,7 +3878,7 @@
         <v>26</v>
       </c>
       <c r="H62" s="4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
@@ -3892,13 +3886,13 @@
         <v>2020</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D63" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E63" s="4" t="s">
         <v>40</v>
@@ -3910,7 +3904,7 @@
         <v>14</v>
       </c>
       <c r="H63" s="4" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
@@ -3918,13 +3912,13 @@
         <v>2020</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D64" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E64" s="4" t="s">
         <v>7</v>
@@ -3936,7 +3930,7 @@
         <v>39</v>
       </c>
       <c r="H64" s="4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
@@ -3944,13 +3938,13 @@
         <v>2020</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E65" s="4" t="s">
         <v>39</v>
@@ -3962,7 +3956,7 @@
         <v>14</v>
       </c>
       <c r="H65" s="4" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
@@ -3970,25 +3964,25 @@
         <v>2020</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D66" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E66" s="4" t="s">
         <v>2</v>
       </c>
       <c r="F66" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G66" s="4" t="s">
         <v>5</v>
       </c>
       <c r="H66" s="4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
@@ -3996,13 +3990,13 @@
         <v>2020</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D67" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E67" s="4" t="s">
         <v>26</v>
@@ -4014,7 +4008,7 @@
         <v>35</v>
       </c>
       <c r="H67" s="4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
@@ -4022,13 +4016,13 @@
         <v>2020</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D68" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E68" s="4" t="s">
         <v>29</v>
@@ -4040,7 +4034,7 @@
         <v>40</v>
       </c>
       <c r="H68" s="4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
@@ -4048,13 +4042,13 @@
         <v>2020</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D69" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E69" s="4" t="s">
         <v>0</v>
@@ -4066,7 +4060,7 @@
         <v>14</v>
       </c>
       <c r="H69" s="4" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
@@ -4074,13 +4068,13 @@
         <v>2020</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D70" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E70" s="4" t="s">
         <v>10</v>
@@ -4092,7 +4086,7 @@
         <v>39</v>
       </c>
       <c r="H70" s="4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
@@ -4100,13 +4094,13 @@
         <v>2019</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D71" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E71" s="4" t="s">
         <v>42</v>
@@ -4118,7 +4112,7 @@
         <v>39</v>
       </c>
       <c r="H71" s="4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
@@ -4126,25 +4120,25 @@
         <v>2019</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D72" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E72" s="4" t="s">
         <v>37</v>
       </c>
       <c r="F72" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G72" s="4" t="s">
         <v>39</v>
       </c>
       <c r="H72" s="4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
@@ -4152,13 +4146,13 @@
         <v>2019</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D73" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E73" s="4" t="s">
         <v>21</v>
@@ -4170,7 +4164,7 @@
         <v>20</v>
       </c>
       <c r="H73" s="4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
@@ -4178,13 +4172,13 @@
         <v>2019</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D74" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E74" s="4" t="s">
         <v>25</v>
@@ -4196,7 +4190,7 @@
         <v>36</v>
       </c>
       <c r="H74" s="4" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
@@ -4204,13 +4198,13 @@
         <v>2019</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D75" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E75" s="4" t="s">
         <v>21</v>
@@ -4222,7 +4216,7 @@
         <v>24</v>
       </c>
       <c r="H75" s="4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
@@ -4230,13 +4224,13 @@
         <v>2019</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D76" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E76" s="4" t="s">
         <v>43</v>
@@ -4248,7 +4242,7 @@
         <v>14</v>
       </c>
       <c r="H76" s="4" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
@@ -4256,25 +4250,25 @@
         <v>2019</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D77" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E77" s="4" t="s">
         <v>44</v>
       </c>
       <c r="F77" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G77" s="4" t="s">
         <v>34</v>
       </c>
       <c r="H77" s="4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
@@ -4282,13 +4276,13 @@
         <v>2019</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D78" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E78" s="4" t="s">
         <v>35</v>
@@ -4300,7 +4294,7 @@
         <v>45</v>
       </c>
       <c r="H78" s="4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
@@ -4308,13 +4302,13 @@
         <v>2019</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D79" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E79" s="4" t="s">
         <v>0</v>
@@ -4326,7 +4320,7 @@
         <v>36</v>
       </c>
       <c r="H79" s="4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
@@ -4334,13 +4328,13 @@
         <v>2019</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D80" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E80" s="4" t="s">
         <v>26</v>
@@ -4352,7 +4346,7 @@
         <v>14</v>
       </c>
       <c r="H80" s="4" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
@@ -4360,25 +4354,23 @@
         <v>2019</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D81" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E81" s="4" t="s">
         <v>43</v>
       </c>
       <c r="F81" s="4" t="s">
-        <v>233</v>
-      </c>
-      <c r="G81" s="4" t="s">
-        <v>223</v>
-      </c>
+        <v>231</v>
+      </c>
+      <c r="G81" s="4"/>
       <c r="H81" s="4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
@@ -4386,13 +4378,13 @@
         <v>2018</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D82" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E82" s="4" t="s">
         <v>29</v>
@@ -4404,7 +4396,7 @@
         <v>1</v>
       </c>
       <c r="H82" s="4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
@@ -4412,13 +4404,13 @@
         <v>2018</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D83" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E83" s="4" t="s">
         <v>45</v>
@@ -4430,7 +4422,7 @@
         <v>27</v>
       </c>
       <c r="H83" s="4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
@@ -4438,13 +4430,13 @@
         <v>2018</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D84" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E84" s="4" t="s">
         <v>29</v>
@@ -4456,7 +4448,7 @@
         <v>5</v>
       </c>
       <c r="H84" s="4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
@@ -4464,13 +4456,13 @@
         <v>2018</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D85" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E85" s="4" t="s">
         <v>21</v>
@@ -4482,7 +4474,7 @@
         <v>39</v>
       </c>
       <c r="H85" s="4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
@@ -4490,13 +4482,13 @@
         <v>2018</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D86" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E86" s="4" t="s">
         <v>9</v>
@@ -4508,7 +4500,7 @@
         <v>44</v>
       </c>
       <c r="H86" s="4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
@@ -4516,13 +4508,13 @@
         <v>2018</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D87" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E87" s="4" t="s">
         <v>1</v>
@@ -4534,7 +4526,7 @@
         <v>34</v>
       </c>
       <c r="H87" s="4" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
@@ -4542,13 +4534,13 @@
         <v>2018</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D88" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E88" s="4" t="s">
         <v>19</v>
@@ -4557,10 +4549,10 @@
         <v>42</v>
       </c>
       <c r="G88" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H88" s="4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.25">
@@ -4568,13 +4560,13 @@
         <v>2018</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D89" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E89" s="4" t="s">
         <v>9</v>
@@ -4586,7 +4578,7 @@
         <v>6</v>
       </c>
       <c r="H89" s="4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
@@ -4594,13 +4586,13 @@
         <v>2018</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D90" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E90" s="4" t="s">
         <v>9</v>
@@ -4612,7 +4604,7 @@
         <v>12</v>
       </c>
       <c r="H90" s="4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
@@ -4620,25 +4612,21 @@
         <v>2018</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D91" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E91" s="4" t="s">
-        <v>234</v>
-      </c>
-      <c r="F91" s="4" t="s">
-        <v>223</v>
-      </c>
-      <c r="G91" s="4" t="s">
-        <v>223</v>
-      </c>
+        <v>232</v>
+      </c>
+      <c r="F91" s="4"/>
+      <c r="G91" s="4"/>
       <c r="H91" s="4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
@@ -4646,13 +4634,13 @@
         <v>2018</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D92" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E92" s="4" t="s">
         <v>20</v>
@@ -4664,7 +4652,7 @@
         <v>34</v>
       </c>
       <c r="H92" s="4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.25">
@@ -4672,13 +4660,13 @@
         <v>2017</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D93" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E93" s="4" t="s">
         <v>7</v>
@@ -4690,7 +4678,7 @@
         <v>12</v>
       </c>
       <c r="H93" s="4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.25">
@@ -4698,13 +4686,13 @@
         <v>2017</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D94" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E94" s="4" t="s">
         <v>19</v>
@@ -4716,7 +4704,7 @@
         <v>24</v>
       </c>
       <c r="H94" s="4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.25">
@@ -4724,13 +4712,13 @@
         <v>2017</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D95" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E95" s="4" t="s">
         <v>9</v>
@@ -4742,7 +4730,7 @@
         <v>0</v>
       </c>
       <c r="H95" s="4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.25">
@@ -4750,13 +4738,13 @@
         <v>2017</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D96" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E96" s="4" t="s">
         <v>0</v>
@@ -4768,7 +4756,7 @@
         <v>46</v>
       </c>
       <c r="H96" s="4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.25">
@@ -4776,25 +4764,25 @@
         <v>2017</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D97" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E97" s="4" t="s">
         <v>46</v>
       </c>
       <c r="F97" s="4" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="G97" s="4" t="s">
         <v>22</v>
       </c>
       <c r="H97" s="4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.25">
@@ -4802,13 +4790,13 @@
         <v>2017</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D98" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E98" s="4" t="s">
         <v>7</v>
@@ -4820,7 +4808,7 @@
         <v>31</v>
       </c>
       <c r="H98" s="4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.25">
@@ -4828,13 +4816,13 @@
         <v>2017</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D99" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E99" s="4" t="s">
         <v>26</v>
@@ -4846,7 +4834,7 @@
         <v>1</v>
       </c>
       <c r="H99" s="4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.25">
@@ -4854,13 +4842,13 @@
         <v>2017</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D100" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E100" s="4" t="s">
         <v>21</v>
@@ -4872,7 +4860,7 @@
         <v>11</v>
       </c>
       <c r="H100" s="4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.25">
@@ -4880,13 +4868,13 @@
         <v>2017</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D101" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E101" s="4" t="s">
         <v>15</v>
@@ -4898,7 +4886,7 @@
         <v>0</v>
       </c>
       <c r="H101" s="4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.25">
@@ -4906,13 +4894,13 @@
         <v>2017</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D102" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E102" s="4" t="s">
         <v>8</v>
@@ -4924,7 +4912,7 @@
         <v>1</v>
       </c>
       <c r="H102" s="4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.25">
@@ -4932,13 +4920,13 @@
         <v>2017</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D103" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E103" s="4" t="s">
         <v>36</v>
@@ -4950,7 +4938,7 @@
         <v>31</v>
       </c>
       <c r="H103" s="4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.25">
@@ -4958,13 +4946,13 @@
         <v>2016</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D104" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E104" s="4" t="s">
         <v>7</v>
@@ -4976,7 +4964,7 @@
         <v>27</v>
       </c>
       <c r="H104" s="4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.25">
@@ -4984,13 +4972,13 @@
         <v>2016</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D105" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E105" s="4" t="s">
         <v>31</v>
@@ -5002,7 +4990,7 @@
         <v>10</v>
       </c>
       <c r="H105" s="4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.25">
@@ -5010,13 +4998,13 @@
         <v>2016</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C106" s="4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D106" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E106" s="4" t="s">
         <v>47</v>
@@ -5028,7 +5016,7 @@
         <v>31</v>
       </c>
       <c r="H106" s="4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.25">
@@ -5036,13 +5024,13 @@
         <v>2016</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D107" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E107" s="4" t="s">
         <v>34</v>
@@ -5054,7 +5042,7 @@
         <v>10</v>
       </c>
       <c r="H107" s="4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.25">
@@ -5062,13 +5050,13 @@
         <v>2016</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C108" s="4" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D108" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E108" s="4" t="s">
         <v>8</v>
@@ -5077,10 +5065,10 @@
         <v>4</v>
       </c>
       <c r="G108" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H108" s="4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.25">
@@ -5088,25 +5076,25 @@
         <v>2016</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C109" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D109" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E109" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F109" s="4" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="G109" s="4" t="s">
         <v>7</v>
       </c>
       <c r="H109" s="4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.25">
@@ -5114,13 +5102,13 @@
         <v>2016</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C110" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D110" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E110" s="4" t="s">
         <v>21</v>
@@ -5132,7 +5120,7 @@
         <v>19</v>
       </c>
       <c r="H110" s="4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.25">
@@ -5140,13 +5128,13 @@
         <v>2016</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C111" s="4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D111" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E111" s="4" t="s">
         <v>1</v>
@@ -5158,7 +5146,7 @@
         <v>35</v>
       </c>
       <c r="H111" s="4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.25">
@@ -5166,25 +5154,23 @@
         <v>2016</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C112" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D112" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E112" s="4" t="s">
-        <v>236</v>
-      </c>
-      <c r="F112" s="4" t="s">
-        <v>223</v>
-      </c>
+        <v>234</v>
+      </c>
+      <c r="F112" s="4"/>
       <c r="G112" s="4" t="s">
         <v>18</v>
       </c>
       <c r="H112" s="4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.25">
@@ -5192,13 +5178,13 @@
         <v>2016</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C113" s="4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D113" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E113" s="4" t="s">
         <v>48</v>
@@ -5210,7 +5196,7 @@
         <v>22</v>
       </c>
       <c r="H113" s="4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.25">
@@ -5218,13 +5204,13 @@
         <v>2016</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C114" s="4" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D114" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E114" s="4" t="s">
         <v>13</v>
@@ -5236,7 +5222,7 @@
         <v>27</v>
       </c>
       <c r="H114" s="4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.25">
@@ -5244,13 +5230,13 @@
         <v>2015</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C115" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D115" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E115" s="4" t="s">
         <v>20</v>
@@ -5262,7 +5248,7 @@
         <v>45</v>
       </c>
       <c r="H115" s="4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.25">
@@ -5270,13 +5256,13 @@
         <v>2015</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C116" s="4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D116" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E116" s="4" t="s">
         <v>22</v>
@@ -5288,7 +5274,7 @@
         <v>19</v>
       </c>
       <c r="H116" s="4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.25">
@@ -5296,13 +5282,13 @@
         <v>2015</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C117" s="4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D117" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E117" s="4" t="s">
         <v>26</v>
@@ -5314,7 +5300,7 @@
         <v>22</v>
       </c>
       <c r="H117" s="4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.25">
@@ -5322,13 +5308,13 @@
         <v>2015</v>
       </c>
       <c r="B118" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C118" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D118" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E118" s="4" t="s">
         <v>19</v>
@@ -5337,10 +5323,10 @@
         <v>21</v>
       </c>
       <c r="G118" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H118" s="4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.25">
@@ -5348,13 +5334,13 @@
         <v>2015</v>
       </c>
       <c r="B119" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C119" s="4" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D119" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E119" s="4" t="s">
         <v>9</v>
@@ -5366,7 +5352,7 @@
         <v>12</v>
       </c>
       <c r="H119" s="4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.25">
@@ -5374,13 +5360,13 @@
         <v>2015</v>
       </c>
       <c r="B120" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C120" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D120" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E120" s="4" t="s">
         <v>13</v>
@@ -5392,7 +5378,7 @@
         <v>35</v>
       </c>
       <c r="H120" s="4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.25">
@@ -5400,13 +5386,13 @@
         <v>2015</v>
       </c>
       <c r="B121" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C121" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D121" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E121" s="4" t="s">
         <v>29</v>
@@ -5418,7 +5404,7 @@
         <v>3</v>
       </c>
       <c r="H121" s="4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.25">
@@ -5426,13 +5412,13 @@
         <v>2015</v>
       </c>
       <c r="B122" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C122" s="4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D122" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E122" s="4" t="s">
         <v>3</v>
@@ -5444,7 +5430,7 @@
         <v>29</v>
       </c>
       <c r="H122" s="4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.25">
@@ -5452,13 +5438,13 @@
         <v>2015</v>
       </c>
       <c r="B123" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C123" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D123" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E123" s="4" t="s">
         <v>47</v>
@@ -5470,7 +5456,7 @@
         <v>22</v>
       </c>
       <c r="H123" s="4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.25">
@@ -5478,13 +5464,13 @@
         <v>2015</v>
       </c>
       <c r="B124" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C124" s="4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D124" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E124" s="4" t="s">
         <v>47</v>
@@ -5496,7 +5482,7 @@
         <v>12</v>
       </c>
       <c r="H124" s="4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.25">
@@ -5504,13 +5490,13 @@
         <v>2015</v>
       </c>
       <c r="B125" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C125" s="4" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D125" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E125" s="4" t="s">
         <v>43</v>
@@ -5522,7 +5508,7 @@
         <v>35</v>
       </c>
       <c r="H125" s="4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.25">
@@ -5530,13 +5516,13 @@
         <v>2014</v>
       </c>
       <c r="B126" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C126" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D126" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E126" s="4" t="s">
         <v>19</v>
@@ -5548,7 +5534,7 @@
         <v>41</v>
       </c>
       <c r="H126" s="4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.25">
@@ -5556,13 +5542,13 @@
         <v>2014</v>
       </c>
       <c r="B127" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C127" s="4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D127" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E127" s="4" t="s">
         <v>10</v>
@@ -5574,7 +5560,7 @@
         <v>45</v>
       </c>
       <c r="H127" s="4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.25">
@@ -5582,13 +5568,13 @@
         <v>2014</v>
       </c>
       <c r="B128" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C128" s="4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D128" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E128" s="4" t="s">
         <v>10</v>
@@ -5600,7 +5586,7 @@
         <v>15</v>
       </c>
       <c r="H128" s="4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.25">
@@ -5608,13 +5594,13 @@
         <v>2014</v>
       </c>
       <c r="B129" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C129" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D129" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E129" s="4" t="s">
         <v>7</v>
@@ -5626,7 +5612,7 @@
         <v>0</v>
       </c>
       <c r="H129" s="4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.25">
@@ -5634,13 +5620,13 @@
         <v>2014</v>
       </c>
       <c r="B130" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C130" s="4" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D130" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E130" s="4" t="s">
         <v>6</v>
@@ -5652,7 +5638,7 @@
         <v>31</v>
       </c>
       <c r="H130" s="4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.25">
@@ -5660,13 +5646,13 @@
         <v>2014</v>
       </c>
       <c r="B131" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C131" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D131" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E131" s="4" t="s">
         <v>19</v>
@@ -5678,7 +5664,7 @@
         <v>1</v>
       </c>
       <c r="H131" s="4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.25">
@@ -5686,13 +5672,13 @@
         <v>2014</v>
       </c>
       <c r="B132" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C132" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D132" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E132" s="4" t="s">
         <v>1</v>
@@ -5704,7 +5690,7 @@
         <v>24</v>
       </c>
       <c r="H132" s="4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.25">
@@ -5712,13 +5698,13 @@
         <v>2014</v>
       </c>
       <c r="B133" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C133" s="4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D133" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E133" s="4" t="s">
         <v>6</v>
@@ -5730,7 +5716,7 @@
         <v>2</v>
       </c>
       <c r="H133" s="4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.25">
@@ -5738,13 +5724,13 @@
         <v>2014</v>
       </c>
       <c r="B134" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C134" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D134" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E134" s="4" t="s">
         <v>18</v>
@@ -5756,7 +5742,7 @@
         <v>12</v>
       </c>
       <c r="H134" s="4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.25">
@@ -5764,13 +5750,13 @@
         <v>2014</v>
       </c>
       <c r="B135" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C135" s="4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D135" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E135" s="4" t="s">
         <v>47</v>
@@ -5782,7 +5768,7 @@
         <v>31</v>
       </c>
       <c r="H135" s="4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.25">
@@ -5790,13 +5776,13 @@
         <v>2014</v>
       </c>
       <c r="B136" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C136" s="4" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D136" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E136" s="4" t="s">
         <v>19</v>
@@ -5808,7 +5794,7 @@
         <v>1</v>
       </c>
       <c r="H136" s="4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.25">
@@ -5816,13 +5802,13 @@
         <v>2013</v>
       </c>
       <c r="B137" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C137" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D137" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E137" s="4" t="s">
         <v>48</v>
@@ -5834,7 +5820,7 @@
         <v>14</v>
       </c>
       <c r="H137" s="4" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.25">
@@ -5842,13 +5828,13 @@
         <v>2013</v>
       </c>
       <c r="B138" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C138" s="4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D138" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E138" s="4" t="s">
         <v>21</v>
@@ -5860,7 +5846,7 @@
         <v>14</v>
       </c>
       <c r="H138" s="4" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.25">
@@ -5868,13 +5854,13 @@
         <v>2013</v>
       </c>
       <c r="B139" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C139" s="4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D139" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E139" s="4" t="s">
         <v>10</v>
@@ -5883,10 +5869,10 @@
         <v>11</v>
       </c>
       <c r="G139" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H139" s="4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.25">
@@ -5894,13 +5880,13 @@
         <v>2013</v>
       </c>
       <c r="B140" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C140" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D140" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E140" s="4" t="s">
         <v>49</v>
@@ -5912,7 +5898,7 @@
         <v>14</v>
       </c>
       <c r="H140" s="4" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.25">
@@ -5920,25 +5906,23 @@
         <v>2013</v>
       </c>
       <c r="B141" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C141" s="4" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D141" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E141" s="4" t="s">
-        <v>237</v>
-      </c>
-      <c r="F141" s="4" t="s">
-        <v>223</v>
-      </c>
+        <v>235</v>
+      </c>
+      <c r="F141" s="4"/>
       <c r="G141" s="4" t="s">
         <v>14</v>
       </c>
       <c r="H141" s="4" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.25">
@@ -5946,13 +5930,13 @@
         <v>2013</v>
       </c>
       <c r="B142" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C142" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D142" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E142" s="4" t="s">
         <v>1</v>
@@ -5964,7 +5948,7 @@
         <v>14</v>
       </c>
       <c r="H142" s="4" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.25">
@@ -5972,13 +5956,13 @@
         <v>2013</v>
       </c>
       <c r="B143" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C143" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D143" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E143" s="4" t="s">
         <v>8</v>
@@ -5990,7 +5974,7 @@
         <v>1</v>
       </c>
       <c r="H143" s="4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.25">
@@ -5998,13 +5982,13 @@
         <v>2013</v>
       </c>
       <c r="B144" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C144" s="4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D144" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E144" s="4" t="s">
         <v>48</v>
@@ -6016,7 +6000,7 @@
         <v>14</v>
       </c>
       <c r="H144" s="4" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.25">
@@ -6024,13 +6008,13 @@
         <v>2013</v>
       </c>
       <c r="B145" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C145" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D145" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E145" s="4" t="s">
         <v>21</v>
@@ -6042,7 +6026,7 @@
         <v>19</v>
       </c>
       <c r="H145" s="4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.25">
@@ -6050,13 +6034,13 @@
         <v>2013</v>
       </c>
       <c r="B146" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C146" s="4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D146" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E146" s="4" t="s">
         <v>39</v>
@@ -6068,7 +6052,7 @@
         <v>51</v>
       </c>
       <c r="H146" s="4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.25">
@@ -6076,13 +6060,13 @@
         <v>2013</v>
       </c>
       <c r="B147" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C147" s="4" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D147" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E147" s="4" t="s">
         <v>50</v>
@@ -6094,7 +6078,7 @@
         <v>14</v>
       </c>
       <c r="H147" s="4" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.25">
@@ -6102,25 +6086,25 @@
         <v>2012</v>
       </c>
       <c r="B148" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C148" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D148" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E148" s="4" t="s">
         <v>51</v>
       </c>
       <c r="F148" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G148" s="4" t="s">
         <v>35</v>
       </c>
       <c r="H148" s="4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.25">
@@ -6128,13 +6112,13 @@
         <v>2012</v>
       </c>
       <c r="B149" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C149" s="4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D149" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E149" s="4" t="s">
         <v>14</v>
@@ -6146,7 +6130,7 @@
         <v>14</v>
       </c>
       <c r="H149" s="4" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.25">
@@ -6154,13 +6138,13 @@
         <v>2012</v>
       </c>
       <c r="B150" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C150" s="4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D150" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E150" s="4" t="s">
         <v>41</v>
@@ -6172,7 +6156,7 @@
         <v>23</v>
       </c>
       <c r="H150" s="4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.25">
@@ -6180,13 +6164,13 @@
         <v>2012</v>
       </c>
       <c r="B151" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C151" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D151" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E151" s="4" t="s">
         <v>14</v>
@@ -6198,7 +6182,7 @@
         <v>14</v>
       </c>
       <c r="H151" s="4" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.25">
@@ -6206,13 +6190,13 @@
         <v>2012</v>
       </c>
       <c r="B152" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C152" s="4" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D152" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E152" s="4" t="s">
         <v>14</v>
@@ -6224,7 +6208,7 @@
         <v>14</v>
       </c>
       <c r="H152" s="4" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.25">
@@ -6232,13 +6216,13 @@
         <v>2012</v>
       </c>
       <c r="B153" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C153" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D153" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E153" s="4" t="s">
         <v>4</v>
@@ -6250,7 +6234,7 @@
         <v>14</v>
       </c>
       <c r="H153" s="4" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.25">
@@ -6258,16 +6242,16 @@
         <v>2012</v>
       </c>
       <c r="B154" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C154" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D154" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E154" s="4" t="s">
-        <v>52</v>
+        <v>210</v>
       </c>
       <c r="F154" s="4" t="s">
         <v>5</v>
@@ -6276,7 +6260,7 @@
         <v>27</v>
       </c>
       <c r="H154" s="4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.25">
@@ -6284,13 +6268,13 @@
         <v>2012</v>
       </c>
       <c r="B155" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C155" s="4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D155" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E155" s="4" t="s">
         <v>14</v>
@@ -6302,7 +6286,7 @@
         <v>14</v>
       </c>
       <c r="H155" s="4" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.25">
@@ -6310,13 +6294,13 @@
         <v>2012</v>
       </c>
       <c r="B156" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C156" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D156" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E156" s="4" t="s">
         <v>12</v>
@@ -6328,7 +6312,7 @@
         <v>29</v>
       </c>
       <c r="H156" s="4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.25">
@@ -6336,13 +6320,13 @@
         <v>2012</v>
       </c>
       <c r="B157" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C157" s="4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D157" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E157" s="4" t="s">
         <v>20</v>
@@ -6354,7 +6338,7 @@
         <v>48</v>
       </c>
       <c r="H157" s="4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.25">
@@ -6362,13 +6346,13 @@
         <v>2012</v>
       </c>
       <c r="B158" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C158" s="4" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D158" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E158" s="4" t="s">
         <v>14</v>
@@ -6380,7 +6364,7 @@
         <v>14</v>
       </c>
       <c r="H158" s="4" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.25">
@@ -6388,13 +6372,13 @@
         <v>2011</v>
       </c>
       <c r="B159" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C159" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D159" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E159" s="4" t="s">
         <v>13</v>
@@ -6406,7 +6390,7 @@
         <v>31</v>
       </c>
       <c r="H159" s="4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.25">
@@ -6414,13 +6398,13 @@
         <v>2011</v>
       </c>
       <c r="B160" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C160" s="4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D160" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E160" s="4" t="s">
         <v>31</v>
@@ -6432,7 +6416,7 @@
         <v>24</v>
       </c>
       <c r="H160" s="4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.25">
@@ -6440,13 +6424,13 @@
         <v>2011</v>
       </c>
       <c r="B161" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C161" s="4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D161" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E161" s="4" t="s">
         <v>8</v>
@@ -6458,7 +6442,7 @@
         <v>23</v>
       </c>
       <c r="H161" s="4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.25">
@@ -6466,13 +6450,13 @@
         <v>2011</v>
       </c>
       <c r="B162" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C162" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D162" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E162" s="4" t="s">
         <v>42</v>
@@ -6484,7 +6468,7 @@
         <v>3</v>
       </c>
       <c r="H162" s="4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.25">
@@ -6492,13 +6476,13 @@
         <v>2011</v>
       </c>
       <c r="B163" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C163" s="4" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D163" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E163" s="4" t="s">
         <v>23</v>
@@ -6510,7 +6494,7 @@
         <v>1</v>
       </c>
       <c r="H163" s="4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="164" spans="1:8" x14ac:dyDescent="0.25">
@@ -6518,13 +6502,13 @@
         <v>2011</v>
       </c>
       <c r="B164" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C164" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D164" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E164" s="4" t="s">
         <v>31</v>
@@ -6533,10 +6517,10 @@
         <v>11</v>
       </c>
       <c r="G164" s="4" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="H164" s="4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.25">
@@ -6544,13 +6528,13 @@
         <v>2011</v>
       </c>
       <c r="B165" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C165" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D165" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E165" s="4" t="s">
         <v>12</v>
@@ -6562,7 +6546,7 @@
         <v>15</v>
       </c>
       <c r="H165" s="4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.25">
@@ -6570,13 +6554,13 @@
         <v>2011</v>
       </c>
       <c r="B166" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C166" s="4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D166" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E166" s="4" t="s">
         <v>34</v>
@@ -6588,7 +6572,7 @@
         <v>23</v>
       </c>
       <c r="H166" s="4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.25">
@@ -6596,13 +6580,13 @@
         <v>2011</v>
       </c>
       <c r="B167" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C167" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D167" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E167" s="4" t="s">
         <v>8</v>
@@ -6614,7 +6598,7 @@
         <v>12</v>
       </c>
       <c r="H167" s="4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="168" spans="1:8" x14ac:dyDescent="0.25">
@@ -6622,13 +6606,13 @@
         <v>2011</v>
       </c>
       <c r="B168" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C168" s="4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D168" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E168" s="4" t="s">
         <v>33</v>
@@ -6640,7 +6624,7 @@
         <v>10</v>
       </c>
       <c r="H168" s="4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.25">
@@ -6648,25 +6632,25 @@
         <v>2011</v>
       </c>
       <c r="B169" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C169" s="4" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D169" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E169" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F169" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G169" s="4" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="H169" s="4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="170" spans="1:8" x14ac:dyDescent="0.25">
@@ -6674,13 +6658,13 @@
         <v>2010</v>
       </c>
       <c r="B170" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C170" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D170" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E170" s="4" t="s">
         <v>31</v>
@@ -6692,7 +6676,7 @@
         <v>34</v>
       </c>
       <c r="H170" s="4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="171" spans="1:8" x14ac:dyDescent="0.25">
@@ -6700,13 +6684,13 @@
         <v>2010</v>
       </c>
       <c r="B171" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C171" s="4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D171" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E171" s="4" t="s">
         <v>3</v>
@@ -6718,7 +6702,7 @@
         <v>15</v>
       </c>
       <c r="H171" s="4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="172" spans="1:8" x14ac:dyDescent="0.25">
@@ -6726,25 +6710,25 @@
         <v>2010</v>
       </c>
       <c r="B172" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C172" s="4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D172" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E172" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F172" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G172" s="4" t="s">
         <v>10</v>
       </c>
       <c r="H172" s="4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="173" spans="1:8" x14ac:dyDescent="0.25">
@@ -6752,13 +6736,13 @@
         <v>2010</v>
       </c>
       <c r="B173" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C173" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D173" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E173" s="4" t="s">
         <v>11</v>
@@ -6770,7 +6754,7 @@
         <v>1</v>
       </c>
       <c r="H173" s="4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="174" spans="1:8" x14ac:dyDescent="0.25">
@@ -6778,13 +6762,13 @@
         <v>2010</v>
       </c>
       <c r="B174" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C174" s="4" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D174" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E174" s="4" t="s">
         <v>23</v>
@@ -6796,7 +6780,7 @@
         <v>6</v>
       </c>
       <c r="H174" s="4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="175" spans="1:8" x14ac:dyDescent="0.25">
@@ -6804,13 +6788,13 @@
         <v>2010</v>
       </c>
       <c r="B175" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C175" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D175" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E175" s="4" t="s">
         <v>13</v>
@@ -6822,7 +6806,7 @@
         <v>19</v>
       </c>
       <c r="H175" s="4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="176" spans="1:8" x14ac:dyDescent="0.25">
@@ -6830,13 +6814,13 @@
         <v>2010</v>
       </c>
       <c r="B176" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C176" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D176" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E176" s="4" t="s">
         <v>3</v>
@@ -6848,7 +6832,7 @@
         <v>26</v>
       </c>
       <c r="H176" s="4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="177" spans="1:8" x14ac:dyDescent="0.25">
@@ -6856,13 +6840,13 @@
         <v>2010</v>
       </c>
       <c r="B177" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C177" s="4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D177" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E177" s="4" t="s">
         <v>11</v>
@@ -6874,7 +6858,7 @@
         <v>8</v>
       </c>
       <c r="H177" s="4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="178" spans="1:8" x14ac:dyDescent="0.25">
@@ -6882,13 +6866,13 @@
         <v>2010</v>
       </c>
       <c r="B178" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C178" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D178" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E178" s="4" t="s">
         <v>0</v>
@@ -6900,7 +6884,7 @@
         <v>11</v>
       </c>
       <c r="H178" s="4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="179" spans="1:8" x14ac:dyDescent="0.25">
@@ -6908,13 +6892,13 @@
         <v>2010</v>
       </c>
       <c r="B179" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C179" s="4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D179" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E179" s="4" t="s">
         <v>4</v>
@@ -6923,10 +6907,10 @@
         <v>51</v>
       </c>
       <c r="G179" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H179" s="4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="180" spans="1:8" x14ac:dyDescent="0.25">
@@ -6934,13 +6918,13 @@
         <v>2010</v>
       </c>
       <c r="B180" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C180" s="4" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D180" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E180" s="4" t="s">
         <v>13</v>
@@ -6952,7 +6936,7 @@
         <v>19</v>
       </c>
       <c r="H180" s="4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="181" spans="1:8" x14ac:dyDescent="0.25">
@@ -6960,13 +6944,13 @@
         <v>2009</v>
       </c>
       <c r="B181" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C181" s="4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D181" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E181" s="4" t="s">
         <v>14</v>
@@ -6978,7 +6962,7 @@
         <v>14</v>
       </c>
       <c r="H181" s="4" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="182" spans="1:8" x14ac:dyDescent="0.25">
@@ -6986,13 +6970,13 @@
         <v>2009</v>
       </c>
       <c r="B182" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C182" s="4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D182" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E182" s="4" t="s">
         <v>9</v>
@@ -7004,7 +6988,7 @@
         <v>5</v>
       </c>
       <c r="H182" s="4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="183" spans="1:8" x14ac:dyDescent="0.25">
@@ -7012,13 +6996,13 @@
         <v>2009</v>
       </c>
       <c r="B183" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C183" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D183" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E183" s="4" t="s">
         <v>14</v>
@@ -7030,7 +7014,7 @@
         <v>14</v>
       </c>
       <c r="H183" s="4" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="184" spans="1:8" x14ac:dyDescent="0.25">
@@ -7038,13 +7022,13 @@
         <v>2009</v>
       </c>
       <c r="B184" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C184" s="4" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D184" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E184" s="4" t="s">
         <v>20</v>
@@ -7056,7 +7040,7 @@
         <v>31</v>
       </c>
       <c r="H184" s="4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="185" spans="1:8" x14ac:dyDescent="0.25">
@@ -7064,13 +7048,13 @@
         <v>2009</v>
       </c>
       <c r="B185" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C185" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D185" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E185" s="4" t="s">
         <v>13</v>
@@ -7082,7 +7066,7 @@
         <v>13</v>
       </c>
       <c r="H185" s="4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="186" spans="1:8" x14ac:dyDescent="0.25">
@@ -7090,13 +7074,13 @@
         <v>2009</v>
       </c>
       <c r="B186" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C186" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D186" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E186" s="4" t="s">
         <v>4</v>
@@ -7108,7 +7092,7 @@
         <v>31</v>
       </c>
       <c r="H186" s="4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="187" spans="1:8" x14ac:dyDescent="0.25">
@@ -7116,13 +7100,13 @@
         <v>2009</v>
       </c>
       <c r="B187" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C187" s="4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D187" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E187" s="4" t="s">
         <v>6</v>
@@ -7134,7 +7118,7 @@
         <v>0</v>
       </c>
       <c r="H187" s="4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="188" spans="1:8" x14ac:dyDescent="0.25">
@@ -7142,13 +7126,13 @@
         <v>2009</v>
       </c>
       <c r="B188" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C188" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D188" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E188" s="4" t="s">
         <v>14</v>
@@ -7160,7 +7144,7 @@
         <v>14</v>
       </c>
       <c r="H188" s="4" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="189" spans="1:8" x14ac:dyDescent="0.25">
@@ -7168,13 +7152,13 @@
         <v>2009</v>
       </c>
       <c r="B189" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C189" s="4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D189" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E189" s="4" t="s">
         <v>34</v>
@@ -7186,7 +7170,7 @@
         <v>31</v>
       </c>
       <c r="H189" s="4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="190" spans="1:8" x14ac:dyDescent="0.25">
@@ -7194,25 +7178,25 @@
         <v>2009</v>
       </c>
       <c r="B190" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C190" s="4" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D190" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E190" s="4" t="s">
         <v>5</v>
       </c>
       <c r="F190" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G190" s="4" t="s">
         <v>13</v>
       </c>
       <c r="H190" s="4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="191" spans="1:8" x14ac:dyDescent="0.25">
@@ -7220,16 +7204,16 @@
         <v>2008</v>
       </c>
       <c r="B191" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C191" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D191" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E191" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F191" s="4" t="s">
         <v>36</v>
@@ -7238,7 +7222,7 @@
         <v>33</v>
       </c>
       <c r="H191" s="4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="192" spans="1:8" x14ac:dyDescent="0.25">
@@ -7246,25 +7230,25 @@
         <v>2008</v>
       </c>
       <c r="B192" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C192" s="4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D192" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E192" s="4" t="s">
         <v>1</v>
       </c>
       <c r="F192" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G192" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H192" s="4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="193" spans="1:8" x14ac:dyDescent="0.25">
@@ -7272,25 +7256,25 @@
         <v>2008</v>
       </c>
       <c r="B193" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C193" s="4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D193" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E193" s="4" t="s">
         <v>1</v>
       </c>
       <c r="F193" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G193" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H193" s="4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="194" spans="1:8" x14ac:dyDescent="0.25">
@@ -7298,16 +7282,16 @@
         <v>2008</v>
       </c>
       <c r="B194" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C194" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D194" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E194" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F194" s="4" t="s">
         <v>19</v>
@@ -7316,7 +7300,7 @@
         <v>33</v>
       </c>
       <c r="H194" s="4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="195" spans="1:8" x14ac:dyDescent="0.25">
@@ -7324,13 +7308,13 @@
         <v>2008</v>
       </c>
       <c r="B195" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C195" s="4" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D195" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E195" s="4" t="s">
         <v>8</v>
@@ -7339,10 +7323,10 @@
         <v>20</v>
       </c>
       <c r="G195" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H195" s="4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="196" spans="1:8" x14ac:dyDescent="0.25">
@@ -7350,25 +7334,25 @@
         <v>2008</v>
       </c>
       <c r="B196" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C196" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D196" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E196" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F196" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G196" s="4" t="s">
         <v>36</v>
       </c>
       <c r="H196" s="4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="197" spans="1:8" x14ac:dyDescent="0.25">
@@ -7376,25 +7360,25 @@
         <v>2008</v>
       </c>
       <c r="B197" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C197" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D197" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E197" s="4" t="s">
         <v>15</v>
       </c>
       <c r="F197" s="4" t="s">
-        <v>52</v>
+        <v>210</v>
       </c>
       <c r="G197" s="4" t="s">
         <v>6</v>
       </c>
       <c r="H197" s="4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="198" spans="1:8" x14ac:dyDescent="0.25">
@@ -7402,13 +7386,13 @@
         <v>2008</v>
       </c>
       <c r="B198" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C198" s="4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D198" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E198" s="4" t="s">
         <v>3</v>
@@ -7420,7 +7404,7 @@
         <v>0</v>
       </c>
       <c r="H198" s="4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="199" spans="1:8" x14ac:dyDescent="0.25">
@@ -7428,13 +7412,13 @@
         <v>2008</v>
       </c>
       <c r="B199" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C199" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D199" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E199" s="4" t="s">
         <v>3</v>
@@ -7446,7 +7430,7 @@
         <v>20</v>
       </c>
       <c r="H199" s="4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="200" spans="1:8" x14ac:dyDescent="0.25">
@@ -7454,25 +7438,25 @@
         <v>2008</v>
       </c>
       <c r="B200" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C200" s="4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D200" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E200" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F200" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G200" s="4" t="s">
         <v>34</v>
       </c>
       <c r="H200" s="4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="201" spans="1:8" x14ac:dyDescent="0.25">
@@ -7480,16 +7464,16 @@
         <v>2008</v>
       </c>
       <c r="B201" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C201" s="4" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D201" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E201" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F201" s="4" t="s">
         <v>8</v>
@@ -7498,7 +7482,7 @@
         <v>36</v>
       </c>
       <c r="H201" s="4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="202" spans="1:8" x14ac:dyDescent="0.25">
@@ -7506,13 +7490,13 @@
         <v>2020</v>
       </c>
       <c r="B202" s="5" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C202" s="5" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D202" s="5" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="203" spans="1:8" x14ac:dyDescent="0.25">
@@ -7520,13 +7504,13 @@
         <v>2020</v>
       </c>
       <c r="B203" s="5" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C203" s="5" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D203" s="5" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="204" spans="1:8" x14ac:dyDescent="0.25">
@@ -7534,13 +7518,13 @@
         <v>2020</v>
       </c>
       <c r="B204" s="5" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C204" s="5" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D204" s="5" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="205" spans="1:8" x14ac:dyDescent="0.25">
@@ -7548,13 +7532,13 @@
         <v>2020</v>
       </c>
       <c r="B205" s="5" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C205" s="5" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D205" s="5" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
   </sheetData>
@@ -7581,19 +7565,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>213</v>
-      </c>
       <c r="C1" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>240</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -7601,7 +7585,7 @@
         <v>2025</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>0</v>
@@ -7618,7 +7602,7 @@
         <v>2024</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>1</v>
@@ -7635,7 +7619,7 @@
         <v>2023</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>2</v>
@@ -7652,7 +7636,7 @@
         <v>2022</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>3</v>
@@ -7669,7 +7653,7 @@
         <v>2021</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>4</v>
@@ -7686,7 +7670,7 @@
         <v>2020</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>5</v>
@@ -7703,7 +7687,7 @@
         <v>2020</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>40</v>
@@ -7720,7 +7704,7 @@
         <v>2019</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>0</v>
@@ -7737,7 +7721,7 @@
         <v>2018</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>6</v>
@@ -7754,7 +7738,7 @@
         <v>2017</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>7</v>
@@ -7771,7 +7755,7 @@
         <v>2016</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>8</v>
@@ -7788,7 +7772,7 @@
         <v>2015</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>9</v>
@@ -7805,7 +7789,7 @@
         <v>2014</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>10</v>
@@ -7822,7 +7806,7 @@
         <v>2013</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>11</v>
@@ -7839,7 +7823,7 @@
         <v>2012</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>12</v>
@@ -7856,7 +7840,7 @@
         <v>2011</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>12</v>
@@ -7873,7 +7857,7 @@
         <v>2010</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>0</v>
@@ -7890,7 +7874,7 @@
         <v>2009</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>13</v>
@@ -7907,7 +7891,7 @@
         <v>2008</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>3</v>
@@ -7924,7 +7908,7 @@
         <v>2007</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>0</v>
@@ -7941,7 +7925,7 @@
         <v>2006</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>14</v>
@@ -7958,7 +7942,7 @@
         <v>2005</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>14</v>
@@ -7975,7 +7959,7 @@
         <v>2004</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>14</v>
@@ -7992,7 +7976,7 @@
         <v>2003</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>14</v>
@@ -8009,7 +7993,7 @@
         <v>2002</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>15</v>
@@ -8026,7 +8010,7 @@
         <v>2001</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>14</v>
@@ -8043,7 +8027,7 @@
         <v>2000</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>14</v>
@@ -8060,7 +8044,7 @@
         <v>1999</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>14</v>
@@ -8077,7 +8061,7 @@
         <v>1998</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>16</v>
@@ -8094,7 +8078,7 @@
         <v>1997</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>10</v>
